--- a/docs/Covarianza.xlsx
+++ b/docs/Covarianza.xlsx
@@ -220,79 +220,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>750.1960016428943</v>
+        <v>750.1924493032104</v>
       </c>
       <c r="C2" t="n">
-        <v>8.157274519950814E12</v>
+        <v>8.16490777859021E12</v>
       </c>
       <c r="D2" t="n">
-        <v>220745.85003299016</v>
+        <v>220775.38988119928</v>
       </c>
       <c r="E2" t="n">
-        <v>-72.19963236819423</v>
+        <v>-72.19908946016648</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8161781648687822E8</v>
+        <v>1.8160043972092468E8</v>
       </c>
       <c r="G2" t="n">
-        <v>5350303.443988188</v>
+        <v>5349652.7241723575</v>
       </c>
       <c r="H2" t="n">
-        <v>182.53451594689068</v>
+        <v>182.5675674625446</v>
       </c>
       <c r="I2" t="n">
-        <v>331.21677564178054</v>
+        <v>326.0756054585473</v>
       </c>
       <c r="J2" t="n">
-        <v>405.54952957266534</v>
+        <v>405.60841666666664</v>
       </c>
       <c r="K2" t="n">
-        <v>-187.92262710747124</v>
+        <v>-187.9168701450654</v>
       </c>
       <c r="L2" t="n">
-        <v>1617.6990395841792</v>
+        <v>1617.7947383115338</v>
       </c>
       <c r="M2" t="n">
-        <v>3.3760087300103474E8</v>
+        <v>3.37368238547406E8</v>
       </c>
       <c r="N2" t="n">
-        <v>30.554278580718165</v>
+        <v>30.453517367672415</v>
       </c>
       <c r="O2" t="n">
-        <v>14.646282890856726</v>
+        <v>14.64726380451843</v>
       </c>
       <c r="P2" t="n">
-        <v>20.718614081630047</v>
+        <v>20.71990677764566</v>
       </c>
       <c r="Q2" t="n">
-        <v>225.7318871454506</v>
+        <v>225.69659042092746</v>
       </c>
       <c r="R2" t="n">
-        <v>20.537964556945244</v>
+        <v>20.540162137692107</v>
       </c>
       <c r="S2" t="n">
-        <v>25.094891488117412</v>
+        <v>25.094249019057315</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2951932926363545</v>
+        <v>2.2952343664819406</v>
       </c>
       <c r="U2" t="n">
         <v>146.39612635286235</v>
       </c>
       <c r="V2" t="n">
-        <v>0.965450106397094</v>
+        <v>0.9655082080199042</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.35348772876887247</v>
+        <v>-0.35263578918886335</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.355114980383281</v>
+        <v>-0.3542451817342993</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.23005889158634862</v>
+        <v>0.2299311001524067</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.9546927989955183</v>
+        <v>-0.9552774360381757</v>
       </c>
     </row>
     <row r="3">
@@ -300,79 +300,79 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.157274519950814E12</v>
+        <v>8.16490777859021E12</v>
       </c>
       <c r="C3" t="n">
-        <v>3.849810732135175E24</v>
+        <v>3.849756777973005E24</v>
       </c>
       <c r="D3" t="n">
-        <v>9.938359303243078E15</v>
+        <v>9.937928370480044E15</v>
       </c>
       <c r="E3" t="n">
-        <v>7.488910429040912E11</v>
+        <v>7.492690361559437E11</v>
       </c>
       <c r="F3" t="n">
-        <v>9.395879012206158E19</v>
+        <v>9.394105473101054E19</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1975523821467758E18</v>
+        <v>2.1971170697810035E18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.147266398640766E12</v>
+        <v>3.14729985440367E12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8317055407595767E12</v>
+        <v>2.6937323474259883E12</v>
       </c>
       <c r="J3" t="n">
-        <v>5.104240958544647E12</v>
+        <v>5.104939362321527E12</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.319763834929437E13</v>
+        <v>-1.3186693593641062E13</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.894726570450809E13</v>
+        <v>-1.8987063428281754E13</v>
       </c>
       <c r="M3" t="n">
-        <v>1.783426281845338E20</v>
+        <v>1.7833148036664892E20</v>
       </c>
       <c r="N3" t="n">
-        <v>1.308597088743927E12</v>
+        <v>1.307496581109287E12</v>
       </c>
       <c r="O3" t="n">
-        <v>-8.547029171914259E11</v>
+        <v>-8.552540859508928E11</v>
       </c>
       <c r="P3" t="n">
-        <v>4.189159920812639E11</v>
+        <v>4.184632073201581E11</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.499618692560139E12</v>
+        <v>8.483791852782772E12</v>
       </c>
       <c r="R3" t="n">
-        <v>4.231759276110297E11</v>
+        <v>4.2288185919698676E11</v>
       </c>
       <c r="S3" t="n">
-        <v>4.984029885871902E11</v>
+        <v>4.9696343208414703E11</v>
       </c>
       <c r="T3" t="n">
-        <v>3.2475898507674706E10</v>
+        <v>3.2534860340481686E10</v>
       </c>
       <c r="U3" t="n">
-        <v>2.309375147668424E12</v>
+        <v>2.310315069504925E12</v>
       </c>
       <c r="V3" t="n">
-        <v>2.9963792870587814E10</v>
+        <v>2.983021072167368E10</v>
       </c>
       <c r="W3" t="n">
-        <v>8.998298609609877E9</v>
+        <v>8.995498687756182E9</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.9165708134540497E10</v>
+        <v>-2.909892157839599E10</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.5656648466138443E10</v>
+        <v>2.570231572679175E10</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.1960130832147987E10</v>
+        <v>-2.1930373564920303E10</v>
       </c>
     </row>
     <row r="4">
@@ -380,79 +380,79 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>220745.85003299016</v>
+        <v>220775.38988119928</v>
       </c>
       <c r="C4" t="n">
-        <v>9.938359303243078E15</v>
+        <v>9.937928370480044E15</v>
       </c>
       <c r="D4" t="n">
-        <v>4.012186332946208E8</v>
+        <v>4.0121519142769545E8</v>
       </c>
       <c r="E4" t="n">
-        <v>36500.46141175219</v>
+        <v>36508.28349039328</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.280276167462496E10</v>
+        <v>-5.309814463674119E10</v>
       </c>
       <c r="G4" t="n">
-        <v>3.054427501495157E9</v>
+        <v>3.0451938165585904E9</v>
       </c>
       <c r="H4" t="n">
-        <v>106485.97659885547</v>
+        <v>106486.24381057313</v>
       </c>
       <c r="I4" t="n">
-        <v>66847.0977338254</v>
+        <v>60892.32550233123</v>
       </c>
       <c r="J4" t="n">
-        <v>153819.01174315758</v>
+        <v>153811.361788666</v>
       </c>
       <c r="K4" t="n">
-        <v>-320693.17250918684</v>
+        <v>-320554.8254320963</v>
       </c>
       <c r="L4" t="n">
-        <v>2756275.2676305273</v>
+        <v>2756804.037421699</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.7944293513397162E11</v>
+        <v>-1.7953197293513013E11</v>
       </c>
       <c r="N4" t="n">
-        <v>32907.480128269126</v>
+        <v>32878.75465059096</v>
       </c>
       <c r="O4" t="n">
-        <v>-14421.251919191527</v>
+        <v>-14416.976090624697</v>
       </c>
       <c r="P4" t="n">
-        <v>14568.615054120817</v>
+        <v>14564.998654934601</v>
       </c>
       <c r="Q4" t="n">
-        <v>323965.5133318014</v>
+        <v>323839.1041073579</v>
       </c>
       <c r="R4" t="n">
-        <v>16638.801835019458</v>
+        <v>16636.45310585587</v>
       </c>
       <c r="S4" t="n">
-        <v>17870.995755746197</v>
+        <v>17859.497994749552</v>
       </c>
       <c r="T4" t="n">
-        <v>1342.6214362844069</v>
+        <v>1343.0923653935495</v>
       </c>
       <c r="U4" t="n">
-        <v>82337.00149991189</v>
+        <v>82344.50867077232</v>
       </c>
       <c r="V4" t="n">
-        <v>1057.6754305473105</v>
+        <v>1056.608507770479</v>
       </c>
       <c r="W4" t="n">
-        <v>686.7378428707409</v>
+        <v>686.7154798497585</v>
       </c>
       <c r="X4" t="n">
-        <v>-2210.881323730336</v>
+        <v>-2210.347898429756</v>
       </c>
       <c r="Y4" t="n">
-        <v>704.1871349070076</v>
+        <v>704.5518800540395</v>
       </c>
       <c r="Z4" t="n">
-        <v>-703.8102533954134</v>
+        <v>-703.5725816223543</v>
       </c>
     </row>
     <row r="5">
@@ -460,79 +460,79 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-72.19963236819423</v>
+        <v>-72.19908946016648</v>
       </c>
       <c r="C5" t="n">
-        <v>7.488910429040912E11</v>
+        <v>7.492690361559437E11</v>
       </c>
       <c r="D5" t="n">
-        <v>36500.46141175219</v>
+        <v>36508.28349039328</v>
       </c>
       <c r="E5" t="n">
-        <v>101.71440362008715</v>
+        <v>101.714320646849</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5583472356688518E7</v>
+        <v>2.558612806717012E7</v>
       </c>
       <c r="G5" t="n">
-        <v>1263753.2442333512</v>
+        <v>1263852.6944670777</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.0715540556042933</v>
+        <v>-1.0766053555291337</v>
       </c>
       <c r="I5" t="n">
-        <v>-12.26214218663317</v>
+        <v>-11.47069933969186</v>
       </c>
       <c r="J5" t="n">
-        <v>-28.556198178726206</v>
+        <v>-28.587919990421465</v>
       </c>
       <c r="K5" t="n">
-        <v>-32.06959527236671</v>
+        <v>-32.070475115338894</v>
       </c>
       <c r="L5" t="n">
-        <v>563.5220240783324</v>
+        <v>563.5073983353149</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.2542822483002413E7</v>
+        <v>-2.2507268700524338E7</v>
       </c>
       <c r="N5" t="n">
-        <v>7.209643680046187</v>
+        <v>7.2227797443965525</v>
       </c>
       <c r="O5" t="n">
-        <v>-28.560273501331082</v>
+        <v>-28.56042341545779</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4738261016262904</v>
+        <v>0.47362853745541006</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.5477595741953</v>
+        <v>34.55315401189061</v>
       </c>
       <c r="R5" t="n">
-        <v>1.1214764155766919</v>
+        <v>1.1211405568651676</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1539079148032752</v>
+        <v>0.15400610406481982</v>
       </c>
       <c r="T5" t="n">
-        <v>0.044243442981733626</v>
+        <v>0.0442371656201961</v>
       </c>
       <c r="U5" t="n">
         <v>-1.1668930592830642</v>
       </c>
       <c r="V5" t="n">
-        <v>0.397214286411918</v>
+        <v>0.3972054066762349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.32537030459136385</v>
+        <v>0.32524010171711354</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.16734220248125495</v>
+        <v>-0.1674751347768941</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.37148370581608453</v>
+        <v>0.37150323632317006</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.12095720272589194</v>
+        <v>-0.12086785199594183</v>
       </c>
     </row>
     <row r="6">
@@ -540,79 +540,79 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8161781648687822E8</v>
+        <v>1.8160043972092468E8</v>
       </c>
       <c r="C6" t="n">
-        <v>9.395879012206158E19</v>
+        <v>9.394105473101054E19</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.280276167462496E10</v>
+        <v>-5.309814463674119E10</v>
       </c>
       <c r="E6" t="n">
-        <v>2.5583472356688518E7</v>
+        <v>2.558612806717012E7</v>
       </c>
       <c r="F6" t="n">
-        <v>5.989210331869205E15</v>
+        <v>5.989125330990382E15</v>
       </c>
       <c r="G6" t="n">
-        <v>7.672454337114095E13</v>
+        <v>7.67213602842328E13</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8486360501549818E7</v>
+        <v>2.864803660885889E7</v>
       </c>
       <c r="I6" t="n">
-        <v>8.250790603669056E7</v>
+        <v>8.728392871850953E7</v>
       </c>
       <c r="J6" t="n">
-        <v>7.154956252929568E7</v>
+        <v>7.146469549391486E7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.109997284810757E7</v>
+        <v>3.112813383417088E7</v>
       </c>
       <c r="L6" t="n">
-        <v>488287.4813262374</v>
+        <v>956411.1787420168</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2376700645970316E16</v>
+        <v>1.2375562682032972E16</v>
       </c>
       <c r="N6" t="n">
-        <v>9265273.941366531</v>
+        <v>9238175.035802973</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.423670165369644E7</v>
+        <v>-3.423190337745122E7</v>
       </c>
       <c r="P6" t="n">
-        <v>-142192.52099207364</v>
+        <v>-135869.1177954816</v>
       </c>
       <c r="Q6" t="n">
-        <v>-3.1630754071982104E7</v>
+        <v>-3.1803412932211578E7</v>
       </c>
       <c r="R6" t="n">
-        <v>-2701837.8383458667</v>
+        <v>-2691088.0650413632</v>
       </c>
       <c r="S6" t="n">
-        <v>407569.036891476</v>
+        <v>404426.30970792077</v>
       </c>
       <c r="T6" t="n">
-        <v>-540244.0197799252</v>
+        <v>-540043.1013247434</v>
       </c>
       <c r="U6" t="n">
         <v>2.1424191135373186E7</v>
       </c>
       <c r="V6" t="n">
-        <v>1081491.2824668405</v>
+        <v>1081775.494673707</v>
       </c>
       <c r="W6" t="n">
-        <v>-470442.4769667696</v>
+        <v>-466275.09546449006</v>
       </c>
       <c r="X6" t="n">
-        <v>412717.35994811915</v>
+        <v>416972.1015818332</v>
       </c>
       <c r="Y6" t="n">
-        <v>201378.0838933836</v>
+        <v>200752.97423718753</v>
       </c>
       <c r="Z6" t="n">
-        <v>-583980.2045316199</v>
+        <v>-586840.038320645</v>
       </c>
     </row>
     <row r="7">
@@ -620,79 +620,79 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5350303.443988188</v>
+        <v>5349652.7241723575</v>
       </c>
       <c r="C7" t="n">
-        <v>2.1975523821467758E18</v>
+        <v>2.1971170697810035E18</v>
       </c>
       <c r="D7" t="n">
-        <v>3.054427501495157E9</v>
+        <v>3.0451938165585904E9</v>
       </c>
       <c r="E7" t="n">
-        <v>1263753.2442333512</v>
+        <v>1263852.6944670777</v>
       </c>
       <c r="F7" t="n">
-        <v>7.672454337114095E13</v>
+        <v>7.67213602842328E13</v>
       </c>
       <c r="G7" t="n">
-        <v>4.312652819281272E12</v>
+        <v>4.31253362001645E12</v>
       </c>
       <c r="H7" t="n">
-        <v>1119762.1873248087</v>
+        <v>1125816.584734182</v>
       </c>
       <c r="I7" t="n">
-        <v>3389545.2373607205</v>
+        <v>3428817.6416076315</v>
       </c>
       <c r="J7" t="n">
-        <v>2995834.3156736703</v>
+        <v>2992561.1023486783</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.1566750670390673E7</v>
+        <v>-1.1565696106399093E7</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.2696180175964099E8</v>
+        <v>-1.269442716066204E8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.484643831728412E14</v>
+        <v>1.484217690474217E14</v>
       </c>
       <c r="N7" t="n">
-        <v>1159584.5230159408</v>
+        <v>1159161.3282081077</v>
       </c>
       <c r="O7" t="n">
-        <v>-499462.4494916243</v>
+        <v>-499282.76511059835</v>
       </c>
       <c r="P7" t="n">
-        <v>158320.97797186737</v>
+        <v>158557.77484042806</v>
       </c>
       <c r="Q7" t="n">
-        <v>862754.7249465204</v>
+        <v>856289.0487654364</v>
       </c>
       <c r="R7" t="n">
-        <v>296689.5728748522</v>
+        <v>297092.127097176</v>
       </c>
       <c r="S7" t="n">
-        <v>280959.12061522674</v>
+        <v>280841.4327290253</v>
       </c>
       <c r="T7" t="n">
-        <v>31512.09178747325</v>
+        <v>31519.615720321435</v>
       </c>
       <c r="U7" t="n">
         <v>776573.9313152985</v>
       </c>
       <c r="V7" t="n">
-        <v>14781.653844508526</v>
+        <v>14792.296936290018</v>
       </c>
       <c r="W7" t="n">
-        <v>-6657.403550499277</v>
+        <v>-6501.344722814629</v>
       </c>
       <c r="X7" t="n">
-        <v>-6427.316507010413</v>
+        <v>-6267.986243847494</v>
       </c>
       <c r="Y7" t="n">
-        <v>16387.620738568632</v>
+        <v>16364.211823386055</v>
       </c>
       <c r="Z7" t="n">
-        <v>-20528.702187880543</v>
+        <v>-20635.796368781444</v>
       </c>
     </row>
     <row r="8">
@@ -700,46 +700,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>182.53451594689068</v>
+        <v>182.5675674625446</v>
       </c>
       <c r="C8" t="n">
-        <v>3.147266398640766E12</v>
+        <v>3.14729985440367E12</v>
       </c>
       <c r="D8" t="n">
-        <v>106485.97659885547</v>
+        <v>106486.24381057313</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.0715540556042933</v>
+        <v>-1.0766053555291337</v>
       </c>
       <c r="F8" t="n">
-        <v>2.8486360501549818E7</v>
+        <v>2.864803660885889E7</v>
       </c>
       <c r="G8" t="n">
-        <v>1119762.1873248087</v>
+        <v>1125816.584734182</v>
       </c>
       <c r="H8" t="n">
         <v>65.45680850259801</v>
       </c>
       <c r="I8" t="n">
-        <v>81.87350052436868</v>
+        <v>80.0821303741746</v>
       </c>
       <c r="J8" t="n">
-        <v>110.00637453589985</v>
+        <v>110.05067083333333</v>
       </c>
       <c r="K8" t="n">
-        <v>-94.86502183789307</v>
+        <v>-94.91858550297263</v>
       </c>
       <c r="L8" t="n">
-        <v>957.9225708026912</v>
+        <v>957.0321751010702</v>
       </c>
       <c r="M8" t="n">
         <v>1.8685959708213598E7</v>
       </c>
       <c r="N8" t="n">
-        <v>12.636382974219282</v>
+        <v>12.623619</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.9036358510124748</v>
+        <v>-0.9127624228299654</v>
       </c>
       <c r="P8" t="n">
         <v>7.053124232404346</v>
@@ -780,79 +780,79 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>331.21677564178054</v>
+        <v>326.0756054585473</v>
       </c>
       <c r="C9" t="n">
-        <v>2.8317055407595767E12</v>
+        <v>2.6937323474259883E12</v>
       </c>
       <c r="D9" t="n">
-        <v>66847.0977338254</v>
+        <v>60892.32550233123</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.26214218663317</v>
+        <v>-11.47069933969186</v>
       </c>
       <c r="F9" t="n">
-        <v>8.250790603669056E7</v>
+        <v>8.728392871850953E7</v>
       </c>
       <c r="G9" t="n">
-        <v>3389545.2373607205</v>
+        <v>3428817.6416076315</v>
       </c>
       <c r="H9" t="n">
-        <v>81.87350052436868</v>
+        <v>80.0821303741746</v>
       </c>
       <c r="I9" t="n">
-        <v>262.7823465707368</v>
+        <v>262.38029605282463</v>
       </c>
       <c r="J9" t="n">
-        <v>177.43044094815</v>
+        <v>174.56813853264856</v>
       </c>
       <c r="K9" t="n">
-        <v>-56.83241881373337</v>
+        <v>-51.45282924431398</v>
       </c>
       <c r="L9" t="n">
-        <v>1095.4430460303606</v>
+        <v>1123.9185301980926</v>
       </c>
       <c r="M9" t="n">
-        <v>9.295670938759628E7</v>
+        <v>1.0485410547796759E8</v>
       </c>
       <c r="N9" t="n">
-        <v>16.465436012845835</v>
+        <v>15.478042212674243</v>
       </c>
       <c r="O9" t="n">
-        <v>19.66566504928189</v>
+        <v>19.415620952311077</v>
       </c>
       <c r="P9" t="n">
-        <v>9.574833338210274</v>
+        <v>9.306055759354363</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.51028149886507</v>
+        <v>64.0731554218635</v>
       </c>
       <c r="R9" t="n">
-        <v>7.9021168238716175</v>
+        <v>7.63883445445262</v>
       </c>
       <c r="S9" t="n">
-        <v>10.888044809435128</v>
+        <v>10.581177567590442</v>
       </c>
       <c r="T9" t="n">
-        <v>1.1279071157576213</v>
+        <v>1.0984577998943208</v>
       </c>
       <c r="U9" t="n">
-        <v>63.89657456696048</v>
+        <v>62.64045610142989</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5780411049407456</v>
+        <v>0.5668951741228474</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.4211206900543143</v>
+        <v>-0.4272718476758274</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03275911783251088</v>
+        <v>0.06531803913426378</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.253078289565574</v>
+        <v>0.25541629359919493</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.5424805444810448</v>
+        <v>-0.5217443114753224</v>
       </c>
     </row>
     <row r="10">
@@ -860,79 +860,79 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>405.54952957266534</v>
+        <v>405.60841666666664</v>
       </c>
       <c r="C10" t="n">
-        <v>5.104240958544647E12</v>
+        <v>5.104939362321527E12</v>
       </c>
       <c r="D10" t="n">
-        <v>153819.01174315758</v>
+        <v>153811.361788666</v>
       </c>
       <c r="E10" t="n">
-        <v>-28.556198178726206</v>
+        <v>-28.587919990421465</v>
       </c>
       <c r="F10" t="n">
-        <v>7.154956252929568E7</v>
+        <v>7.146469549391486E7</v>
       </c>
       <c r="G10" t="n">
-        <v>2995834.3156736703</v>
+        <v>2992561.1023486783</v>
       </c>
       <c r="H10" t="n">
-        <v>110.00637453589985</v>
+        <v>110.05067083333333</v>
       </c>
       <c r="I10" t="n">
-        <v>177.43044094815</v>
+        <v>174.56813853264856</v>
       </c>
       <c r="J10" t="n">
-        <v>263.91485520785915</v>
+        <v>263.91112090038314</v>
       </c>
       <c r="K10" t="n">
-        <v>-129.80252571790513</v>
+        <v>-129.75846235632184</v>
       </c>
       <c r="L10" t="n">
-        <v>1299.3948497704514</v>
+        <v>1298.9676038888888</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1849233820073998E8</v>
+        <v>1.1816237723974437E8</v>
       </c>
       <c r="N10" t="n">
-        <v>20.290584509180658</v>
+        <v>20.240979915391524</v>
       </c>
       <c r="O10" t="n">
-        <v>7.9547813425911835</v>
+        <v>7.972886671455942</v>
       </c>
       <c r="P10" t="n">
-        <v>13.43256043724713</v>
+        <v>13.438054597701148</v>
       </c>
       <c r="Q10" t="n">
-        <v>167.21202867275267</v>
+        <v>167.20764423371648</v>
       </c>
       <c r="R10" t="n">
-        <v>12.86272708653333</v>
+        <v>12.864229824652313</v>
       </c>
       <c r="S10" t="n">
-        <v>15.91656955053223</v>
+        <v>15.919108481937055</v>
       </c>
       <c r="T10" t="n">
-        <v>1.417892087172824</v>
+        <v>1.4179547810750968</v>
       </c>
       <c r="U10" t="n">
-        <v>88.15397394245059</v>
+        <v>88.17153654507841</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6745684658205561</v>
+        <v>0.674324476819163</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.23568133914267383</v>
+        <v>-0.23545336843137862</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.36891196009024496</v>
+        <v>-0.3677270093404514</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.24819128189302506</v>
+        <v>0.2477682574502022</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.5215118947868005</v>
+        <v>-0.5218641839382611</v>
       </c>
     </row>
     <row r="11">
@@ -940,79 +940,79 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-187.92262710747124</v>
+        <v>-187.9168701450654</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.319763834929437E13</v>
+        <v>-1.3186693593641062E13</v>
       </c>
       <c r="D11" t="n">
-        <v>-320693.17250918684</v>
+        <v>-320554.8254320963</v>
       </c>
       <c r="E11" t="n">
-        <v>-32.06959527236671</v>
+        <v>-32.070475115338894</v>
       </c>
       <c r="F11" t="n">
-        <v>3.109997284810757E7</v>
+        <v>3.112813383417088E7</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.1566750670390673E7</v>
+        <v>-1.1565696106399093E7</v>
       </c>
       <c r="H11" t="n">
-        <v>-94.86502183789307</v>
+        <v>-94.91858550297263</v>
       </c>
       <c r="I11" t="n">
-        <v>-56.83241881373337</v>
+        <v>-51.45282924431398</v>
       </c>
       <c r="J11" t="n">
-        <v>-129.80252571790513</v>
+        <v>-129.75846235632184</v>
       </c>
       <c r="K11" t="n">
-        <v>736.9465297231569</v>
+        <v>736.9371999239002</v>
       </c>
       <c r="L11" t="n">
-        <v>625.0799335934954</v>
+        <v>624.9248431391202</v>
       </c>
       <c r="M11" t="n">
-        <v>1.2592853645119701E8</v>
+        <v>1.263055465130233E8</v>
       </c>
       <c r="N11" t="n">
-        <v>-37.14407202364979</v>
+        <v>-37.128237000431035</v>
       </c>
       <c r="O11" t="n">
-        <v>9.11199280857899</v>
+        <v>9.11040312865636</v>
       </c>
       <c r="P11" t="n">
-        <v>-12.423087919547973</v>
+        <v>-12.425182877526753</v>
       </c>
       <c r="Q11" t="n">
-        <v>-317.4282071657232</v>
+        <v>-317.37100488941735</v>
       </c>
       <c r="R11" t="n">
-        <v>-15.117396506713055</v>
+        <v>-15.120957931258383</v>
       </c>
       <c r="S11" t="n">
-        <v>-14.336607088154397</v>
+        <v>-14.335565895432119</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.4098865107193577</v>
+        <v>-1.4099530754642713</v>
       </c>
       <c r="U11" t="n">
         <v>-74.37840108152835</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.2655504198492935</v>
+        <v>-1.2656445800051355</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.8628009925354584</v>
+        <v>-0.8641816555830919</v>
       </c>
       <c r="X11" t="n">
-        <v>2.383645209057678</v>
+        <v>2.382235603398181</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.8743498954956701</v>
+        <v>-0.8741427952331776</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6876131320072412</v>
+        <v>0.688560601499228</v>
       </c>
     </row>
     <row r="12">
@@ -1020,79 +1020,79 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1617.6990395841792</v>
+        <v>1617.7947383115338</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.894726570450809E13</v>
+        <v>-1.8987063428281754E13</v>
       </c>
       <c r="D12" t="n">
-        <v>2756275.2676305273</v>
+        <v>2756804.037421699</v>
       </c>
       <c r="E12" t="n">
-        <v>563.5220240783324</v>
+        <v>563.5073983353149</v>
       </c>
       <c r="F12" t="n">
-        <v>488287.4813262374</v>
+        <v>956411.1787420168</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.2696180175964099E8</v>
+        <v>-1.269442716066204E8</v>
       </c>
       <c r="H12" t="n">
-        <v>957.9225708026912</v>
+        <v>957.0321751010702</v>
       </c>
       <c r="I12" t="n">
-        <v>1095.4430460303606</v>
+        <v>1123.9185301980926</v>
       </c>
       <c r="J12" t="n">
-        <v>1299.3948497704514</v>
+        <v>1298.9676038888888</v>
       </c>
       <c r="K12" t="n">
-        <v>625.0799335934954</v>
+        <v>624.9248431391202</v>
       </c>
       <c r="L12" t="n">
-        <v>476998.36295013875</v>
+        <v>476995.7848615458</v>
       </c>
       <c r="M12" t="n">
-        <v>5.985052161718017E8</v>
+        <v>6.047723029743832E8</v>
       </c>
       <c r="N12" t="n">
-        <v>-351.92192596323065</v>
+        <v>-352.1466761676724</v>
       </c>
       <c r="O12" t="n">
-        <v>-423.89093756854675</v>
+        <v>-423.91736302259216</v>
       </c>
       <c r="P12" t="n">
-        <v>91.88860121283305</v>
+        <v>91.85377645659929</v>
       </c>
       <c r="Q12" t="n">
-        <v>2262.7432967459818</v>
+        <v>2263.694177550535</v>
       </c>
       <c r="R12" t="n">
-        <v>66.05115705151653</v>
+        <v>65.99195503272081</v>
       </c>
       <c r="S12" t="n">
-        <v>145.10281191568677</v>
+        <v>145.120119796376</v>
       </c>
       <c r="T12" t="n">
-        <v>5.902881487144751</v>
+        <v>5.901774972818992</v>
       </c>
       <c r="U12" t="n">
         <v>811.4809935177566</v>
       </c>
       <c r="V12" t="n">
-        <v>12.81711471629348</v>
+        <v>12.815549479898603</v>
       </c>
       <c r="W12" t="n">
-        <v>11.082204037809687</v>
+        <v>11.059253098190938</v>
       </c>
       <c r="X12" t="n">
-        <v>-36.713497400335</v>
+        <v>-36.73692945671748</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.620866215983741</v>
+        <v>3.624308870313949</v>
       </c>
       <c r="Z12" t="n">
-        <v>-8.999704797924132</v>
+        <v>-8.98395489056008</v>
       </c>
     </row>
     <row r="13">
@@ -1100,46 +1100,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.3760087300103474E8</v>
+        <v>3.37368238547406E8</v>
       </c>
       <c r="C13" t="n">
-        <v>1.783426281845338E20</v>
+        <v>1.7833148036664892E20</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.7944293513397162E11</v>
+        <v>-1.7953197293513013E11</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.2542822483002413E7</v>
+        <v>-2.2507268700524338E7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2376700645970316E16</v>
+        <v>1.2375562682032972E16</v>
       </c>
       <c r="G13" t="n">
-        <v>1.484643831728412E14</v>
+        <v>1.484217690474217E14</v>
       </c>
       <c r="H13" t="n">
         <v>1.8685959708213598E7</v>
       </c>
       <c r="I13" t="n">
-        <v>9.295670938759628E7</v>
+        <v>1.0485410547796759E8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1849233820073998E8</v>
+        <v>1.1816237723974437E8</v>
       </c>
       <c r="K13" t="n">
-        <v>1.2592853645119701E8</v>
+        <v>1.263055465130233E8</v>
       </c>
       <c r="L13" t="n">
-        <v>5.985052161718017E8</v>
+        <v>6.047723029743832E8</v>
       </c>
       <c r="M13" t="n">
         <v>2.6920380282970732E16</v>
       </c>
       <c r="N13" t="n">
-        <v>670744.2069708593</v>
+        <v>562176.912441998</v>
       </c>
       <c r="O13" t="n">
-        <v>-6.2172429268855706E7</v>
+        <v>-6.210819151738625E7</v>
       </c>
       <c r="P13" t="n">
         <v>-5889947.731511573</v>
@@ -1180,79 +1180,79 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.554278580718165</v>
+        <v>30.453517367672415</v>
       </c>
       <c r="C14" t="n">
-        <v>1.308597088743927E12</v>
+        <v>1.307496581109287E12</v>
       </c>
       <c r="D14" t="n">
-        <v>32907.480128269126</v>
+        <v>32878.75465059096</v>
       </c>
       <c r="E14" t="n">
-        <v>7.209643680046187</v>
+        <v>7.2227797443965525</v>
       </c>
       <c r="F14" t="n">
-        <v>9265273.941366531</v>
+        <v>9238175.035802973</v>
       </c>
       <c r="G14" t="n">
-        <v>1159584.5230159408</v>
+        <v>1159161.3282081077</v>
       </c>
       <c r="H14" t="n">
-        <v>12.636382974219282</v>
+        <v>12.623619</v>
       </c>
       <c r="I14" t="n">
-        <v>16.465436012845835</v>
+        <v>15.478042212674243</v>
       </c>
       <c r="J14" t="n">
-        <v>20.290584509180658</v>
+        <v>20.240979915391524</v>
       </c>
       <c r="K14" t="n">
-        <v>-37.14407202364979</v>
+        <v>-37.128237000431035</v>
       </c>
       <c r="L14" t="n">
-        <v>-351.92192596323065</v>
+        <v>-352.1466761676724</v>
       </c>
       <c r="M14" t="n">
-        <v>670744.2069708593</v>
+        <v>562176.912441998</v>
       </c>
       <c r="N14" t="n">
-        <v>17.60559965539898</v>
+        <v>17.60512903199569</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3961454535868006</v>
+        <v>0.4026319004741381</v>
       </c>
       <c r="P14" t="n">
-        <v>2.310274106754842</v>
+        <v>2.308376379310345</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.995903765042776</v>
+        <v>41.94752788103448</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9677753981856736</v>
+        <v>1.9655934319787824</v>
       </c>
       <c r="S14" t="n">
-        <v>2.3650878359694945</v>
+        <v>2.364921908040975</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2446281032021319</v>
+        <v>0.24432482455429227</v>
       </c>
       <c r="U14" t="n">
-        <v>10.778918687514386</v>
+        <v>10.76592864469694</v>
       </c>
       <c r="V14" t="n">
-        <v>0.10246778445186898</v>
+        <v>0.10209402261801008</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.09648100735164634</v>
+        <v>-0.09626098030518757</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.07350642079609998</v>
+        <v>-0.07325934952487283</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04640875998404757</v>
+        <v>0.046262526563674605</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.1381223648776596</v>
+        <v>-0.13799586630438976</v>
       </c>
     </row>
     <row r="15">
@@ -1260,79 +1260,79 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.646282890856726</v>
+        <v>14.64726380451843</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.547029171914259E11</v>
+        <v>-8.552540859508928E11</v>
       </c>
       <c r="D15" t="n">
-        <v>-14421.251919191527</v>
+        <v>-14416.976090624697</v>
       </c>
       <c r="E15" t="n">
-        <v>-28.560273501331082</v>
+        <v>-28.56042341545779</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.423670165369644E7</v>
+        <v>-3.423190337745122E7</v>
       </c>
       <c r="G15" t="n">
-        <v>-499462.4494916243</v>
+        <v>-499282.76511059835</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.9036358510124748</v>
+        <v>-0.9127624228299654</v>
       </c>
       <c r="I15" t="n">
-        <v>19.66566504928189</v>
+        <v>19.415620952311077</v>
       </c>
       <c r="J15" t="n">
-        <v>7.9547813425911835</v>
+        <v>7.972886671455942</v>
       </c>
       <c r="K15" t="n">
-        <v>9.11199280857899</v>
+        <v>9.11040312865636</v>
       </c>
       <c r="L15" t="n">
-        <v>-423.89093756854675</v>
+        <v>-423.91736302259216</v>
       </c>
       <c r="M15" t="n">
-        <v>-6.2172429268855706E7</v>
+        <v>-6.210819151738625E7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3961454535868006</v>
+        <v>0.4026319004741381</v>
       </c>
       <c r="O15" t="n">
-        <v>29.190598015524955</v>
+        <v>29.19032715414982</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2653199032427186</v>
+        <v>0.2649629488703924</v>
       </c>
       <c r="Q15" t="n">
-        <v>-5.0578476324780555</v>
+        <v>-5.048101087277051</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.1797067649114712</v>
+        <v>-1.1803135866597074</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3987498620872188</v>
+        <v>0.3989272681728853</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.03682655282011838</v>
+        <v>-0.03683789461168671</v>
       </c>
       <c r="U15" t="n">
         <v>-2.242020303298641</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.21324905769754426</v>
+        <v>-0.21326510139850013</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.29177243472159337</v>
+        <v>-0.2920076822619039</v>
       </c>
       <c r="X15" t="n">
-        <v>0.08658600898732649</v>
+        <v>0.08634582999160931</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.1630833641716979</v>
+        <v>-0.16304807690343026</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.05124729221853112</v>
+        <v>0.051408729049835615</v>
       </c>
     </row>
     <row r="16">
@@ -1340,46 +1340,46 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.718614081630047</v>
+        <v>20.71990677764566</v>
       </c>
       <c r="C16" t="n">
-        <v>4.189159920812639E11</v>
+        <v>4.184632073201581E11</v>
       </c>
       <c r="D16" t="n">
-        <v>14568.615054120817</v>
+        <v>14564.998654934601</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4738261016262904</v>
+        <v>0.47362853745541006</v>
       </c>
       <c r="F16" t="n">
-        <v>-142192.52099207364</v>
+        <v>-135869.1177954816</v>
       </c>
       <c r="G16" t="n">
-        <v>158320.97797186737</v>
+        <v>158557.77484042806</v>
       </c>
       <c r="H16" t="n">
         <v>7.053124232404346</v>
       </c>
       <c r="I16" t="n">
-        <v>9.574833338210274</v>
+        <v>9.306055759354363</v>
       </c>
       <c r="J16" t="n">
-        <v>13.43256043724713</v>
+        <v>13.438054597701148</v>
       </c>
       <c r="K16" t="n">
-        <v>-12.423087919547973</v>
+        <v>-12.425182877526753</v>
       </c>
       <c r="L16" t="n">
-        <v>91.88860121283305</v>
+        <v>91.85377645659929</v>
       </c>
       <c r="M16" t="n">
         <v>-5889947.731511573</v>
       </c>
       <c r="N16" t="n">
-        <v>2.310274106754842</v>
+        <v>2.308376379310345</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2653199032427186</v>
+        <v>0.2649629488703924</v>
       </c>
       <c r="P16" t="n">
         <v>1.1042040623523854</v>
@@ -1420,46 +1420,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>225.7318871454506</v>
+        <v>225.69659042092746</v>
       </c>
       <c r="C17" t="n">
-        <v>8.499618692560139E12</v>
+        <v>8.483791852782772E12</v>
       </c>
       <c r="D17" t="n">
-        <v>323965.5133318014</v>
+        <v>323839.1041073579</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5477595741953</v>
+        <v>34.55315401189061</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.1630754071982104E7</v>
+        <v>-3.1803412932211578E7</v>
       </c>
       <c r="G17" t="n">
-        <v>862754.7249465204</v>
+        <v>856289.0487654364</v>
       </c>
       <c r="H17" t="n">
         <v>106.62870320264524</v>
       </c>
       <c r="I17" t="n">
-        <v>69.51028149886507</v>
+        <v>64.0731554218635</v>
       </c>
       <c r="J17" t="n">
-        <v>167.21202867275267</v>
+        <v>167.20764423371648</v>
       </c>
       <c r="K17" t="n">
-        <v>-317.4282071657232</v>
+        <v>-317.37100488941735</v>
       </c>
       <c r="L17" t="n">
-        <v>2262.7432967459818</v>
+        <v>2263.694177550535</v>
       </c>
       <c r="M17" t="n">
         <v>-1.2552961322570784E8</v>
       </c>
       <c r="N17" t="n">
-        <v>41.995903765042776</v>
+        <v>41.94752788103448</v>
       </c>
       <c r="O17" t="n">
-        <v>-5.0578476324780555</v>
+        <v>-5.048101087277051</v>
       </c>
       <c r="P17" t="n">
         <v>15.162448748228625</v>
@@ -1500,46 +1500,46 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.537964556945244</v>
+        <v>20.540162137692107</v>
       </c>
       <c r="C18" t="n">
-        <v>4.231759276110297E11</v>
+        <v>4.2288185919698676E11</v>
       </c>
       <c r="D18" t="n">
-        <v>16638.801835019458</v>
+        <v>16636.45310585587</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1214764155766919</v>
+        <v>1.1211405568651676</v>
       </c>
       <c r="F18" t="n">
-        <v>-2701837.8383458667</v>
+        <v>-2691088.0650413632</v>
       </c>
       <c r="G18" t="n">
-        <v>296689.5728748522</v>
+        <v>297092.127097176</v>
       </c>
       <c r="H18" t="n">
         <v>7.157431165498047</v>
       </c>
       <c r="I18" t="n">
-        <v>7.9021168238716175</v>
+        <v>7.63883445445262</v>
       </c>
       <c r="J18" t="n">
-        <v>12.86272708653333</v>
+        <v>12.864229824652313</v>
       </c>
       <c r="K18" t="n">
-        <v>-15.117396506713055</v>
+        <v>-15.120957931258383</v>
       </c>
       <c r="L18" t="n">
-        <v>66.05115705151653</v>
+        <v>65.99195503272081</v>
       </c>
       <c r="M18" t="n">
         <v>-1.139686709939464E7</v>
       </c>
       <c r="N18" t="n">
-        <v>1.9677753981856736</v>
+        <v>1.9655934319787824</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.1797067649114712</v>
+        <v>-1.1803135866597074</v>
       </c>
       <c r="P18" t="n">
         <v>0.9616713063282547</v>
@@ -1580,46 +1580,46 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.094891488117412</v>
+        <v>25.094249019057315</v>
       </c>
       <c r="C19" t="n">
-        <v>4.984029885871902E11</v>
+        <v>4.9696343208414703E11</v>
       </c>
       <c r="D19" t="n">
-        <v>17870.995755746197</v>
+        <v>17859.497994749552</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1539079148032752</v>
+        <v>0.15400610406481982</v>
       </c>
       <c r="F19" t="n">
-        <v>407569.036891476</v>
+        <v>404426.30970792077</v>
       </c>
       <c r="G19" t="n">
-        <v>280959.12061522674</v>
+        <v>280841.4327290253</v>
       </c>
       <c r="H19" t="n">
         <v>8.378012081226318</v>
       </c>
       <c r="I19" t="n">
-        <v>10.888044809435128</v>
+        <v>10.581177567590442</v>
       </c>
       <c r="J19" t="n">
-        <v>15.91656955053223</v>
+        <v>15.919108481937055</v>
       </c>
       <c r="K19" t="n">
-        <v>-14.336607088154397</v>
+        <v>-14.335565895432119</v>
       </c>
       <c r="L19" t="n">
-        <v>145.10281191568677</v>
+        <v>145.120119796376</v>
       </c>
       <c r="M19" t="n">
         <v>-4398118.931127382</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3650878359694945</v>
+        <v>2.364921908040975</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3987498620872188</v>
+        <v>0.3989272681728853</v>
       </c>
       <c r="P19" t="n">
         <v>1.1665128329628949</v>
@@ -1660,46 +1660,46 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.2951932926363545</v>
+        <v>2.2952343664819406</v>
       </c>
       <c r="C20" t="n">
-        <v>3.2475898507674706E10</v>
+        <v>3.2534860340481686E10</v>
       </c>
       <c r="D20" t="n">
-        <v>1342.6214362844069</v>
+        <v>1343.0923653935495</v>
       </c>
       <c r="E20" t="n">
-        <v>0.044243442981733626</v>
+        <v>0.0442371656201961</v>
       </c>
       <c r="F20" t="n">
-        <v>-540244.0197799252</v>
+        <v>-540043.1013247434</v>
       </c>
       <c r="G20" t="n">
-        <v>31512.09178747325</v>
+        <v>31519.615720321435</v>
       </c>
       <c r="H20" t="n">
         <v>0.7081590855311518</v>
       </c>
       <c r="I20" t="n">
-        <v>1.1279071157576213</v>
+        <v>1.0984577998943208</v>
       </c>
       <c r="J20" t="n">
-        <v>1.417892087172824</v>
+        <v>1.4179547810750968</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.4098865107193577</v>
+        <v>-1.4099530754642713</v>
       </c>
       <c r="L20" t="n">
-        <v>5.902881487144751</v>
+        <v>5.901774972818992</v>
       </c>
       <c r="M20" t="n">
         <v>-1925545.0926323407</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2446281032021319</v>
+        <v>0.24432482455429227</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.03682655282011838</v>
+        <v>-0.03683789461168671</v>
       </c>
       <c r="P20" t="n">
         <v>0.09732587229210944</v>
@@ -1743,10 +1743,10 @@
         <v>146.39612635286235</v>
       </c>
       <c r="C21" t="n">
-        <v>2.309375147668424E12</v>
+        <v>2.310315069504925E12</v>
       </c>
       <c r="D21" t="n">
-        <v>82337.00149991189</v>
+        <v>82344.50867077232</v>
       </c>
       <c r="E21" t="n">
         <v>-1.1668930592830642</v>
@@ -1761,10 +1761,10 @@
         <v>52.10710681639545</v>
       </c>
       <c r="I21" t="n">
-        <v>63.89657456696048</v>
+        <v>62.64045610142989</v>
       </c>
       <c r="J21" t="n">
-        <v>88.15397394245059</v>
+        <v>88.17153654507841</v>
       </c>
       <c r="K21" t="n">
         <v>-74.37840108152835</v>
@@ -1776,7 +1776,7 @@
         <v>8148980.07674383</v>
       </c>
       <c r="N21" t="n">
-        <v>10.778918687514386</v>
+        <v>10.76592864469694</v>
       </c>
       <c r="O21" t="n">
         <v>-2.242020303298641</v>
@@ -1820,46 +1820,46 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.965450106397094</v>
+        <v>0.9655082080199042</v>
       </c>
       <c r="C22" t="n">
-        <v>2.9963792870587814E10</v>
+        <v>2.983021072167368E10</v>
       </c>
       <c r="D22" t="n">
-        <v>1057.6754305473105</v>
+        <v>1056.608507770479</v>
       </c>
       <c r="E22" t="n">
-        <v>0.397214286411918</v>
+        <v>0.3972054066762349</v>
       </c>
       <c r="F22" t="n">
-        <v>1081491.2824668405</v>
+        <v>1081775.494673707</v>
       </c>
       <c r="G22" t="n">
-        <v>14781.653844508526</v>
+        <v>14792.296936290018</v>
       </c>
       <c r="H22" t="n">
         <v>0.38787153570049343</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5780411049407456</v>
+        <v>0.5668951741228474</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6745684658205561</v>
+        <v>0.674324476819163</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.2655504198492935</v>
+        <v>-1.2656445800051355</v>
       </c>
       <c r="L22" t="n">
-        <v>12.81711471629348</v>
+        <v>12.815549479898603</v>
       </c>
       <c r="M22" t="n">
         <v>1970059.1992548541</v>
       </c>
       <c r="N22" t="n">
-        <v>0.10246778445186898</v>
+        <v>0.10209402261801008</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.21324905769754426</v>
+        <v>-0.21326510139850013</v>
       </c>
       <c r="P22" t="n">
         <v>0.053024557323102385</v>
@@ -1900,46 +1900,46 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.35348772876887247</v>
+        <v>-0.35263578918886335</v>
       </c>
       <c r="C23" t="n">
-        <v>8.998298609609877E9</v>
+        <v>8.995498687756182E9</v>
       </c>
       <c r="D23" t="n">
-        <v>686.7378428707409</v>
+        <v>686.7154798497585</v>
       </c>
       <c r="E23" t="n">
-        <v>0.32537030459136385</v>
+        <v>0.32524010171711354</v>
       </c>
       <c r="F23" t="n">
-        <v>-470442.4769667696</v>
+        <v>-466275.09546449006</v>
       </c>
       <c r="G23" t="n">
-        <v>-6657.403550499277</v>
+        <v>-6501.344722814629</v>
       </c>
       <c r="H23" t="n">
         <v>0.017353063885556044</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.4211206900543143</v>
+        <v>-0.4272718476758274</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.23568133914267383</v>
+        <v>-0.23545336843137862</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.8628009925354584</v>
+        <v>-0.8641816555830919</v>
       </c>
       <c r="L23" t="n">
-        <v>11.082204037809687</v>
+        <v>11.059253098190938</v>
       </c>
       <c r="M23" t="n">
         <v>-732921.94954644</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.09648100735164634</v>
+        <v>-0.09626098030518757</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.29177243472159337</v>
+        <v>-0.2920076822619039</v>
       </c>
       <c r="P23" t="n">
         <v>-0.010005273295320955</v>
@@ -1980,46 +1980,46 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.355114980383281</v>
+        <v>-0.3542451817342993</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.9165708134540497E10</v>
+        <v>-2.909892157839599E10</v>
       </c>
       <c r="D24" t="n">
-        <v>-2210.881323730336</v>
+        <v>-2210.347898429756</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.16734220248125495</v>
+        <v>-0.1674751347768941</v>
       </c>
       <c r="F24" t="n">
-        <v>412717.35994811915</v>
+        <v>416972.1015818332</v>
       </c>
       <c r="G24" t="n">
-        <v>-6427.316507010413</v>
+        <v>-6267.986243847494</v>
       </c>
       <c r="H24" t="n">
         <v>-0.4024438668173567</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03275911783251088</v>
+        <v>0.06531803913426378</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.36891196009024496</v>
+        <v>-0.3677270093404514</v>
       </c>
       <c r="K24" t="n">
-        <v>2.383645209057678</v>
+        <v>2.382235603398181</v>
       </c>
       <c r="L24" t="n">
-        <v>-36.713497400335</v>
+        <v>-36.73692945671748</v>
       </c>
       <c r="M24" t="n">
         <v>1085730.1011137946</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.07350642079609998</v>
+        <v>-0.07325934952487283</v>
       </c>
       <c r="O24" t="n">
-        <v>0.08658600898732649</v>
+        <v>0.08634582999160931</v>
       </c>
       <c r="P24" t="n">
         <v>-0.043287613314516825</v>
@@ -2060,46 +2060,46 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23005889158634862</v>
+        <v>0.2299311001524067</v>
       </c>
       <c r="C25" t="n">
-        <v>2.5656648466138443E10</v>
+        <v>2.570231572679175E10</v>
       </c>
       <c r="D25" t="n">
-        <v>704.1871349070076</v>
+        <v>704.5518800540395</v>
       </c>
       <c r="E25" t="n">
-        <v>0.37148370581608453</v>
+        <v>0.37150323632317006</v>
       </c>
       <c r="F25" t="n">
-        <v>201378.0838933836</v>
+        <v>200752.97423718753</v>
       </c>
       <c r="G25" t="n">
-        <v>16387.620738568632</v>
+        <v>16364.211823386055</v>
       </c>
       <c r="H25" t="n">
         <v>0.16324383381296584</v>
       </c>
       <c r="I25" t="n">
-        <v>0.253078289565574</v>
+        <v>0.25541629359919493</v>
       </c>
       <c r="J25" t="n">
-        <v>0.24819128189302506</v>
+        <v>0.2477682574502022</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.8743498954956701</v>
+        <v>-0.8741427952331776</v>
       </c>
       <c r="L25" t="n">
-        <v>3.620866215983741</v>
+        <v>3.624308870313949</v>
       </c>
       <c r="M25" t="n">
         <v>-7431.692804895858</v>
       </c>
       <c r="N25" t="n">
-        <v>0.04640875998404757</v>
+        <v>0.046262526563674605</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1630833641716979</v>
+        <v>-0.16304807690343026</v>
       </c>
       <c r="P25" t="n">
         <v>0.031925182761374675</v>
@@ -2140,46 +2140,46 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9546927989955183</v>
+        <v>-0.9552774360381757</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.1960130832147987E10</v>
+        <v>-2.1930373564920303E10</v>
       </c>
       <c r="D26" t="n">
-        <v>-703.8102533954134</v>
+        <v>-703.5725816223543</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.12095720272589194</v>
+        <v>-0.12086785199594183</v>
       </c>
       <c r="F26" t="n">
-        <v>-583980.2045316199</v>
+        <v>-586840.038320645</v>
       </c>
       <c r="G26" t="n">
-        <v>-20528.702187880543</v>
+        <v>-20635.796368781444</v>
       </c>
       <c r="H26" t="n">
         <v>-0.3054242610212586</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5424805444810448</v>
+        <v>-0.5217443114753224</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.5215118947868005</v>
+        <v>-0.5218641839382611</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6876131320072412</v>
+        <v>0.688560601499228</v>
       </c>
       <c r="L26" t="n">
-        <v>-8.999704797924132</v>
+        <v>-8.98395489056008</v>
       </c>
       <c r="M26" t="n">
         <v>-688664.1758754851</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.1381223648776596</v>
+        <v>-0.13799586630438976</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05124729221853112</v>
+        <v>0.051408729049835615</v>
       </c>
       <c r="P26" t="n">
         <v>-0.044046078105921004</v>

--- a/docs/Covarianza.xlsx
+++ b/docs/Covarianza.xlsx
@@ -1,103 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>electricity_access</t>
+    <t xml:space="preserve"/>
   </si>
   <si>
-    <t>gdp</t>
+    <t xml:space="preserve">electricity_access</t>
   </si>
   <si>
-    <t>gdp_capita</t>
+    <t xml:space="preserve">gdp</t>
   </si>
   <si>
-    <t>labor_rate</t>
+    <t xml:space="preserve">gdp_capita</t>
   </si>
   <si>
-    <t>labor_force</t>
+    <t xml:space="preserve">labor_rate</t>
   </si>
   <si>
-    <t>land_area</t>
+    <t xml:space="preserve">labor_force</t>
   </si>
   <si>
-    <t>life_expectancy</t>
+    <t xml:space="preserve">land_area</t>
   </si>
   <si>
-    <t>adult_literacy</t>
+    <t xml:space="preserve">life_expectancy</t>
   </si>
   <si>
-    <t>water_access</t>
+    <t xml:space="preserve">adult_literacy</t>
   </si>
   <si>
-    <t>air_pollution</t>
+    <t xml:space="preserve">water_access</t>
   </si>
   <si>
-    <t>population_density</t>
+    <t xml:space="preserve">air_pollution</t>
   </si>
   <si>
-    <t>population</t>
+    <t xml:space="preserve">population_density</t>
   </si>
   <si>
-    <t>alcohol_consumption</t>
+    <t xml:space="preserve">population</t>
   </si>
   <si>
-    <t>unemployment_rate</t>
+    <t xml:space="preserve">alcohol_consumption</t>
   </si>
   <si>
-    <t>income_class</t>
+    <t xml:space="preserve">unemployment_rate</t>
   </si>
   <si>
-    <t>cpi</t>
+    <t xml:space="preserve">income_class</t>
   </si>
   <si>
-    <t>life_ladder</t>
+    <t xml:space="preserve">cpi</t>
   </si>
   <si>
-    <t>log_gdp_per_capita</t>
+    <t xml:space="preserve">life_ladder</t>
   </si>
   <si>
-    <t>social_support</t>
+    <t xml:space="preserve">log_gdp_per_capita</t>
   </si>
   <si>
-    <t>healthy_life_expectancy_at_birth</t>
+    <t xml:space="preserve">social_support</t>
   </si>
   <si>
-    <t>freedom_to_make_life_choices</t>
+    <t xml:space="preserve">healthy_life_expectancy_at_birth</t>
   </si>
   <si>
-    <t>generosity</t>
+    <t xml:space="preserve">freedom_to_make_life_choices</t>
   </si>
   <si>
-    <t>perceptions_of_corruption</t>
+    <t xml:space="preserve">generosity</t>
   </si>
   <si>
-    <t>positive_affect</t>
+    <t xml:space="preserve">perceptions_of_corruption</t>
   </si>
   <si>
-    <t>negative_affect</t>
+    <t xml:space="preserve">positive_affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_affect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +111,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -126,490 +129,773 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>750.1924493032104</v>
+        <v>750.19244930321</v>
       </c>
       <c r="C2" t="n">
-        <v>8.16490777859021E12</v>
+        <v>8164907778590.21</v>
       </c>
       <c r="D2" t="n">
-        <v>220775.38988119928</v>
+        <v>220775.389881199</v>
       </c>
       <c r="E2" t="n">
-        <v>-72.19908946016648</v>
+        <v>-72.1990894601665</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8160043972092468E8</v>
+        <v>181600439.720925</v>
       </c>
       <c r="G2" t="n">
-        <v>5349652.7241723575</v>
+        <v>5349652.72417236</v>
       </c>
       <c r="H2" t="n">
-        <v>182.5675674625446</v>
+        <v>182.567567462545</v>
       </c>
       <c r="I2" t="n">
-        <v>326.0756054585473</v>
+        <v>326.075605458547</v>
       </c>
       <c r="J2" t="n">
-        <v>405.60841666666664</v>
+        <v>405.608416666667</v>
       </c>
       <c r="K2" t="n">
-        <v>-187.9168701450654</v>
+        <v>-187.916870145065</v>
       </c>
       <c r="L2" t="n">
-        <v>1617.7947383115338</v>
+        <v>1617.79473831153</v>
       </c>
       <c r="M2" t="n">
-        <v>3.37368238547406E8</v>
+        <v>337368238.547406</v>
       </c>
       <c r="N2" t="n">
-        <v>30.453517367672415</v>
+        <v>30.4535173676724</v>
       </c>
       <c r="O2" t="n">
-        <v>14.64726380451843</v>
+        <v>14.6472638045184</v>
       </c>
       <c r="P2" t="n">
-        <v>20.71990677764566</v>
+        <v>20.7199067776457</v>
       </c>
       <c r="Q2" t="n">
-        <v>225.69659042092746</v>
+        <v>225.696590420927</v>
       </c>
       <c r="R2" t="n">
-        <v>20.540162137692107</v>
+        <v>20.5401621376921</v>
       </c>
       <c r="S2" t="n">
-        <v>25.094249019057315</v>
+        <v>25.0942490190573</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2952343664819406</v>
+        <v>2.29523436648194</v>
       </c>
       <c r="U2" t="n">
-        <v>146.39612635286235</v>
+        <v>146.396126352862</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9655082080199042</v>
+        <v>0.965508208019904</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.35263578918886335</v>
+        <v>-0.352635789188863</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.3542451817342993</v>
+        <v>-0.354245181734299</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2299311001524067</v>
+        <v>0.229931100152407</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.9552774360381757</v>
+        <v>-0.955277436038176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.16490777859021E12</v>
+        <v>8164907778590.21</v>
       </c>
       <c r="C3" t="n">
-        <v>3.849756777973005E24</v>
+        <v>3849756777973004885060022</v>
       </c>
       <c r="D3" t="n">
-        <v>9.937928370480044E15</v>
+        <v>9937928370480044</v>
       </c>
       <c r="E3" t="n">
-        <v>7.492690361559437E11</v>
+        <v>749269036155.944</v>
       </c>
       <c r="F3" t="n">
-        <v>9.394105473101054E19</v>
+        <v>93941054731010539520</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1971170697810035E18</v>
+        <v>2197117069781003520</v>
       </c>
       <c r="H3" t="n">
-        <v>3.14729985440367E12</v>
+        <v>3147299854403.67</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6937323474259883E12</v>
+        <v>2693732347425.99</v>
       </c>
       <c r="J3" t="n">
-        <v>5.104939362321527E12</v>
+        <v>5104939362321.53</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.3186693593641062E13</v>
+        <v>-13186693593641.1</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.8987063428281754E13</v>
+        <v>-18987063428281.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.7833148036664892E20</v>
+        <v>178331480366648918026</v>
       </c>
       <c r="N3" t="n">
-        <v>1.307496581109287E12</v>
+        <v>1307496581109.29</v>
       </c>
       <c r="O3" t="n">
-        <v>-8.552540859508928E11</v>
+        <v>-855254085950.893</v>
       </c>
       <c r="P3" t="n">
-        <v>4.184632073201581E11</v>
+        <v>418463207320.158</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.483791852782772E12</v>
+        <v>8483791852782.77</v>
       </c>
       <c r="R3" t="n">
-        <v>4.2288185919698676E11</v>
+        <v>422881859196.987</v>
       </c>
       <c r="S3" t="n">
-        <v>4.9696343208414703E11</v>
+        <v>496963432084.147</v>
       </c>
       <c r="T3" t="n">
-        <v>3.2534860340481686E10</v>
+        <v>32534860340.4817</v>
       </c>
       <c r="U3" t="n">
-        <v>2.310315069504925E12</v>
+        <v>2310315069504.92</v>
       </c>
       <c r="V3" t="n">
-        <v>2.983021072167368E10</v>
+        <v>29830210721.6737</v>
       </c>
       <c r="W3" t="n">
-        <v>8.995498687756182E9</v>
+        <v>8995498687.75618</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.909892157839599E10</v>
+        <v>-29098921578.396</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.570231572679175E10</v>
+        <v>25702315726.7918</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.1930373564920303E10</v>
+        <v>-21930373564.9203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>220775.38988119928</v>
+        <v>220775.389881199</v>
       </c>
       <c r="C4" t="n">
-        <v>9.937928370480044E15</v>
+        <v>9937928370480044</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0121519142769545E8</v>
+        <v>401215191.427695</v>
       </c>
       <c r="E4" t="n">
-        <v>36508.28349039328</v>
+        <v>36508.2834903933</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.309814463674119E10</v>
+        <v>-53098144636.7412</v>
       </c>
       <c r="G4" t="n">
-        <v>3.0451938165585904E9</v>
+        <v>3045193816.55859</v>
       </c>
       <c r="H4" t="n">
-        <v>106486.24381057313</v>
+        <v>106486.243810573</v>
       </c>
       <c r="I4" t="n">
-        <v>60892.32550233123</v>
+        <v>60892.3255023312</v>
       </c>
       <c r="J4" t="n">
         <v>153811.361788666</v>
       </c>
       <c r="K4" t="n">
-        <v>-320554.8254320963</v>
+        <v>-320554.825432096</v>
       </c>
       <c r="L4" t="n">
-        <v>2756804.037421699</v>
+        <v>2756804.0374217</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.7953197293513013E11</v>
+        <v>-179531972935.13</v>
       </c>
       <c r="N4" t="n">
-        <v>32878.75465059096</v>
+        <v>32878.754650591</v>
       </c>
       <c r="O4" t="n">
-        <v>-14416.976090624697</v>
+        <v>-14416.9760906247</v>
       </c>
       <c r="P4" t="n">
-        <v>14564.998654934601</v>
+        <v>14564.9986549346</v>
       </c>
       <c r="Q4" t="n">
-        <v>323839.1041073579</v>
+        <v>323839.104107358</v>
       </c>
       <c r="R4" t="n">
-        <v>16636.45310585587</v>
+        <v>16636.4531058559</v>
       </c>
       <c r="S4" t="n">
-        <v>17859.497994749552</v>
+        <v>17859.4979947496</v>
       </c>
       <c r="T4" t="n">
-        <v>1343.0923653935495</v>
+        <v>1343.09236539355</v>
       </c>
       <c r="U4" t="n">
-        <v>82344.50867077232</v>
+        <v>82344.5086707723</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.608507770479</v>
+        <v>1056.60850777048</v>
       </c>
       <c r="W4" t="n">
-        <v>686.7154798497585</v>
+        <v>686.715479849758</v>
       </c>
       <c r="X4" t="n">
-        <v>-2210.347898429756</v>
+        <v>-2210.34789842976</v>
       </c>
       <c r="Y4" t="n">
-        <v>704.5518800540395</v>
+        <v>704.55188005404</v>
       </c>
       <c r="Z4" t="n">
-        <v>-703.5725816223543</v>
+        <v>-703.572581622354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-72.19908946016648</v>
+        <v>-72.1990894601665</v>
       </c>
       <c r="C5" t="n">
-        <v>7.492690361559437E11</v>
+        <v>749269036155.944</v>
       </c>
       <c r="D5" t="n">
-        <v>36508.28349039328</v>
+        <v>36508.2834903933</v>
       </c>
       <c r="E5" t="n">
         <v>101.714320646849</v>
       </c>
       <c r="F5" t="n">
-        <v>2.558612806717012E7</v>
+        <v>25586128.0671701</v>
       </c>
       <c r="G5" t="n">
-        <v>1263852.6944670777</v>
+        <v>1263852.69446708</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.0766053555291337</v>
+        <v>-1.07660535552913</v>
       </c>
       <c r="I5" t="n">
-        <v>-11.47069933969186</v>
+        <v>-11.4706993396919</v>
       </c>
       <c r="J5" t="n">
-        <v>-28.587919990421465</v>
+        <v>-28.5879199904215</v>
       </c>
       <c r="K5" t="n">
-        <v>-32.070475115338894</v>
+        <v>-32.0704751153389</v>
       </c>
       <c r="L5" t="n">
-        <v>563.5073983353149</v>
+        <v>563.507398335315</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.2507268700524338E7</v>
+        <v>-22507268.7005243</v>
       </c>
       <c r="N5" t="n">
-        <v>7.2227797443965525</v>
+        <v>7.22277974439655</v>
       </c>
       <c r="O5" t="n">
-        <v>-28.56042341545779</v>
+        <v>-28.5604234154578</v>
       </c>
       <c r="P5" t="n">
-        <v>0.47362853745541006</v>
+        <v>0.47362853745541</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.55315401189061</v>
+        <v>34.5531540118906</v>
       </c>
       <c r="R5" t="n">
-        <v>1.1211405568651676</v>
+        <v>1.12114055686517</v>
       </c>
       <c r="S5" t="n">
-        <v>0.15400610406481982</v>
+        <v>0.15400610406482</v>
       </c>
       <c r="T5" t="n">
         <v>0.0442371656201961</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.1668930592830642</v>
+        <v>-1.16689305928306</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3972054066762349</v>
+        <v>0.397205406676235</v>
       </c>
       <c r="W5" t="n">
-        <v>0.32524010171711354</v>
+        <v>0.325240101717114</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1674751347768941</v>
+        <v>-0.167475134776894</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.37150323632317006</v>
+        <v>0.37150323632317</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.12086785199594183</v>
+        <v>-0.120867851995942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8160043972092468E8</v>
+        <v>181600439.720925</v>
       </c>
       <c r="C6" t="n">
-        <v>9.394105473101054E19</v>
+        <v>93941054731010539520</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.309814463674119E10</v>
+        <v>-53098144636.7412</v>
       </c>
       <c r="E6" t="n">
-        <v>2.558612806717012E7</v>
+        <v>25586128.0671701</v>
       </c>
       <c r="F6" t="n">
-        <v>5.989125330990382E15</v>
+        <v>5989125330990382</v>
       </c>
       <c r="G6" t="n">
-        <v>7.67213602842328E13</v>
+        <v>76721360284232.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.864803660885889E7</v>
+        <v>28648036.6088589</v>
       </c>
       <c r="I6" t="n">
-        <v>8.728392871850953E7</v>
+        <v>87283928.7185095</v>
       </c>
       <c r="J6" t="n">
-        <v>7.146469549391486E7</v>
+        <v>71464695.4939149</v>
       </c>
       <c r="K6" t="n">
-        <v>3.112813383417088E7</v>
+        <v>31128133.8341709</v>
       </c>
       <c r="L6" t="n">
-        <v>956411.1787420168</v>
+        <v>956411.178742017</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2375562682032972E16</v>
+        <v>12375562682032972</v>
       </c>
       <c r="N6" t="n">
-        <v>9238175.035802973</v>
+        <v>9238175.03580297</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.423190337745122E7</v>
+        <v>-34231903.3774512</v>
       </c>
       <c r="P6" t="n">
-        <v>-135869.1177954816</v>
+        <v>-135869.117795482</v>
       </c>
       <c r="Q6" t="n">
-        <v>-3.1803412932211578E7</v>
+        <v>-31803412.9322116</v>
       </c>
       <c r="R6" t="n">
-        <v>-2691088.0650413632</v>
+        <v>-2691088.06504136</v>
       </c>
       <c r="S6" t="n">
-        <v>404426.30970792077</v>
+        <v>404426.309707921</v>
       </c>
       <c r="T6" t="n">
-        <v>-540043.1013247434</v>
+        <v>-540043.101324743</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1424191135373186E7</v>
+        <v>21424191.1353732</v>
       </c>
       <c r="V6" t="n">
-        <v>1081775.494673707</v>
+        <v>1081775.49467371</v>
       </c>
       <c r="W6" t="n">
-        <v>-466275.09546449006</v>
+        <v>-466275.09546449</v>
       </c>
       <c r="X6" t="n">
-        <v>416972.1015818332</v>
+        <v>416972.101581833</v>
       </c>
       <c r="Y6" t="n">
-        <v>200752.97423718753</v>
+        <v>200752.974237188</v>
       </c>
       <c r="Z6" t="n">
         <v>-586840.038320645</v>
@@ -617,212 +903,212 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5349652.7241723575</v>
+        <v>5349652.72417236</v>
       </c>
       <c r="C7" t="n">
-        <v>2.1971170697810035E18</v>
+        <v>2197117069781003520</v>
       </c>
       <c r="D7" t="n">
-        <v>3.0451938165585904E9</v>
+        <v>3045193816.55859</v>
       </c>
       <c r="E7" t="n">
-        <v>1263852.6944670777</v>
+        <v>1263852.69446708</v>
       </c>
       <c r="F7" t="n">
-        <v>7.67213602842328E13</v>
+        <v>76721360284232.8</v>
       </c>
       <c r="G7" t="n">
-        <v>4.31253362001645E12</v>
+        <v>4312533620016.45</v>
       </c>
       <c r="H7" t="n">
-        <v>1125816.584734182</v>
+        <v>1125816.58473418</v>
       </c>
       <c r="I7" t="n">
-        <v>3428817.6416076315</v>
+        <v>3428817.64160763</v>
       </c>
       <c r="J7" t="n">
-        <v>2992561.1023486783</v>
+        <v>2992561.10234868</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.1565696106399093E7</v>
+        <v>-11565696.1063991</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.269442716066204E8</v>
+        <v>-126944271.60662</v>
       </c>
       <c r="M7" t="n">
-        <v>1.484217690474217E14</v>
+        <v>148421769047422</v>
       </c>
       <c r="N7" t="n">
-        <v>1159161.3282081077</v>
+        <v>1159161.32820811</v>
       </c>
       <c r="O7" t="n">
-        <v>-499282.76511059835</v>
+        <v>-499282.765110598</v>
       </c>
       <c r="P7" t="n">
-        <v>158557.77484042806</v>
+        <v>158557.774840428</v>
       </c>
       <c r="Q7" t="n">
-        <v>856289.0487654364</v>
+        <v>856289.048765436</v>
       </c>
       <c r="R7" t="n">
         <v>297092.127097176</v>
       </c>
       <c r="S7" t="n">
-        <v>280841.4327290253</v>
+        <v>280841.432729025</v>
       </c>
       <c r="T7" t="n">
-        <v>31519.615720321435</v>
+        <v>31519.6157203214</v>
       </c>
       <c r="U7" t="n">
-        <v>776573.9313152985</v>
+        <v>776573.931315299</v>
       </c>
       <c r="V7" t="n">
-        <v>14792.296936290018</v>
+        <v>14792.29693629</v>
       </c>
       <c r="W7" t="n">
-        <v>-6501.344722814629</v>
+        <v>-6501.34472281463</v>
       </c>
       <c r="X7" t="n">
-        <v>-6267.986243847494</v>
+        <v>-6267.98624384749</v>
       </c>
       <c r="Y7" t="n">
-        <v>16364.211823386055</v>
+        <v>16364.2118233861</v>
       </c>
       <c r="Z7" t="n">
-        <v>-20635.796368781444</v>
+        <v>-20635.7963687814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>182.5675674625446</v>
+        <v>182.567567462545</v>
       </c>
       <c r="C8" t="n">
-        <v>3.14729985440367E12</v>
+        <v>3147299854403.67</v>
       </c>
       <c r="D8" t="n">
-        <v>106486.24381057313</v>
+        <v>106486.243810573</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.0766053555291337</v>
+        <v>-1.07660535552913</v>
       </c>
       <c r="F8" t="n">
-        <v>2.864803660885889E7</v>
+        <v>28648036.6088589</v>
       </c>
       <c r="G8" t="n">
-        <v>1125816.584734182</v>
+        <v>1125816.58473418</v>
       </c>
       <c r="H8" t="n">
-        <v>65.45680850259801</v>
+        <v>65.456808502598</v>
       </c>
       <c r="I8" t="n">
         <v>80.0821303741746</v>
       </c>
       <c r="J8" t="n">
-        <v>110.05067083333333</v>
+        <v>110.050670833333</v>
       </c>
       <c r="K8" t="n">
-        <v>-94.91858550297263</v>
+        <v>-94.9185855029726</v>
       </c>
       <c r="L8" t="n">
-        <v>957.0321751010702</v>
+        <v>957.03217510107</v>
       </c>
       <c r="M8" t="n">
-        <v>1.8685959708213598E7</v>
+        <v>18685959.7082136</v>
       </c>
       <c r="N8" t="n">
         <v>12.623619</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.9127624228299654</v>
+        <v>-0.912762422829965</v>
       </c>
       <c r="P8" t="n">
-        <v>7.053124232404346</v>
+        <v>7.05312423240435</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.62870320264524</v>
+        <v>106.628703202645</v>
       </c>
       <c r="R8" t="n">
-        <v>7.157431165498047</v>
+        <v>7.15743116549805</v>
       </c>
       <c r="S8" t="n">
-        <v>8.378012081226318</v>
+        <v>8.37801208122632</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7081590855311518</v>
+        <v>0.708159085531152</v>
       </c>
       <c r="U8" t="n">
-        <v>52.10710681639545</v>
+        <v>52.1071068163955</v>
       </c>
       <c r="V8" t="n">
-        <v>0.38787153570049343</v>
+        <v>0.387871535700493</v>
       </c>
       <c r="W8" t="n">
-        <v>0.017353063885556044</v>
+        <v>0.017353063885556</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.4024438668173567</v>
+        <v>-0.402443866817357</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.16324383381296584</v>
+        <v>0.163243833812966</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.3054242610212586</v>
+        <v>-0.305424261021259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>326.0756054585473</v>
+        <v>326.075605458547</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6937323474259883E12</v>
+        <v>2693732347425.99</v>
       </c>
       <c r="D9" t="n">
-        <v>60892.32550233123</v>
+        <v>60892.3255023312</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.47069933969186</v>
+        <v>-11.4706993396919</v>
       </c>
       <c r="F9" t="n">
-        <v>8.728392871850953E7</v>
+        <v>87283928.7185095</v>
       </c>
       <c r="G9" t="n">
-        <v>3428817.6416076315</v>
+        <v>3428817.64160763</v>
       </c>
       <c r="H9" t="n">
         <v>80.0821303741746</v>
       </c>
       <c r="I9" t="n">
-        <v>262.38029605282463</v>
+        <v>262.380296052825</v>
       </c>
       <c r="J9" t="n">
-        <v>174.56813853264856</v>
+        <v>174.568138532649</v>
       </c>
       <c r="K9" t="n">
-        <v>-51.45282924431398</v>
+        <v>-51.452829244314</v>
       </c>
       <c r="L9" t="n">
-        <v>1123.9185301980926</v>
+        <v>1123.91853019809</v>
       </c>
       <c r="M9" t="n">
-        <v>1.0485410547796759E8</v>
+        <v>104854105.477968</v>
       </c>
       <c r="N9" t="n">
-        <v>15.478042212674243</v>
+        <v>15.4780422126742</v>
       </c>
       <c r="O9" t="n">
-        <v>19.415620952311077</v>
+        <v>19.4156209523111</v>
       </c>
       <c r="P9" t="n">
-        <v>9.306055759354363</v>
+        <v>9.30605575935436</v>
       </c>
       <c r="Q9" t="n">
         <v>64.0731554218635</v>
@@ -831,185 +1117,185 @@
         <v>7.63883445445262</v>
       </c>
       <c r="S9" t="n">
-        <v>10.581177567590442</v>
+        <v>10.5811775675904</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0984577998943208</v>
+        <v>1.09845779989432</v>
       </c>
       <c r="U9" t="n">
-        <v>62.64045610142989</v>
+        <v>62.6404561014299</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5668951741228474</v>
+        <v>0.566895174122847</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.4272718476758274</v>
+        <v>-0.427271847675827</v>
       </c>
       <c r="X9" t="n">
-        <v>0.06531803913426378</v>
+        <v>0.0653180391342638</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.25541629359919493</v>
+        <v>0.255416293599195</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.5217443114753224</v>
+        <v>-0.521744311475322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>405.60841666666664</v>
+        <v>405.608416666667</v>
       </c>
       <c r="C10" t="n">
-        <v>5.104939362321527E12</v>
+        <v>5104939362321.53</v>
       </c>
       <c r="D10" t="n">
         <v>153811.361788666</v>
       </c>
       <c r="E10" t="n">
-        <v>-28.587919990421465</v>
+        <v>-28.5879199904215</v>
       </c>
       <c r="F10" t="n">
-        <v>7.146469549391486E7</v>
+        <v>71464695.4939149</v>
       </c>
       <c r="G10" t="n">
-        <v>2992561.1023486783</v>
+        <v>2992561.10234868</v>
       </c>
       <c r="H10" t="n">
-        <v>110.05067083333333</v>
+        <v>110.050670833333</v>
       </c>
       <c r="I10" t="n">
-        <v>174.56813853264856</v>
+        <v>174.568138532649</v>
       </c>
       <c r="J10" t="n">
-        <v>263.91112090038314</v>
+        <v>263.911120900383</v>
       </c>
       <c r="K10" t="n">
-        <v>-129.75846235632184</v>
+        <v>-129.758462356322</v>
       </c>
       <c r="L10" t="n">
-        <v>1298.9676038888888</v>
+        <v>1298.96760388889</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1816237723974437E8</v>
+        <v>118162377.239744</v>
       </c>
       <c r="N10" t="n">
-        <v>20.240979915391524</v>
+        <v>20.2409799153915</v>
       </c>
       <c r="O10" t="n">
-        <v>7.972886671455942</v>
+        <v>7.97288667145594</v>
       </c>
       <c r="P10" t="n">
-        <v>13.438054597701148</v>
+        <v>13.4380545977011</v>
       </c>
       <c r="Q10" t="n">
-        <v>167.20764423371648</v>
+        <v>167.207644233716</v>
       </c>
       <c r="R10" t="n">
-        <v>12.864229824652313</v>
+        <v>12.8642298246523</v>
       </c>
       <c r="S10" t="n">
-        <v>15.919108481937055</v>
+        <v>15.9191084819371</v>
       </c>
       <c r="T10" t="n">
-        <v>1.4179547810750968</v>
+        <v>1.4179547810751</v>
       </c>
       <c r="U10" t="n">
-        <v>88.17153654507841</v>
+        <v>88.1715365450784</v>
       </c>
       <c r="V10" t="n">
         <v>0.674324476819163</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.23545336843137862</v>
+        <v>-0.235453368431379</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.3677270093404514</v>
+        <v>-0.367727009340451</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2477682574502022</v>
+        <v>0.247768257450202</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.5218641839382611</v>
+        <v>-0.521864183938261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-187.9168701450654</v>
+        <v>-187.916870145065</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.3186693593641062E13</v>
+        <v>-13186693593641.1</v>
       </c>
       <c r="D11" t="n">
-        <v>-320554.8254320963</v>
+        <v>-320554.825432096</v>
       </c>
       <c r="E11" t="n">
-        <v>-32.070475115338894</v>
+        <v>-32.0704751153389</v>
       </c>
       <c r="F11" t="n">
-        <v>3.112813383417088E7</v>
+        <v>31128133.8341709</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.1565696106399093E7</v>
+        <v>-11565696.1063991</v>
       </c>
       <c r="H11" t="n">
-        <v>-94.91858550297263</v>
+        <v>-94.9185855029726</v>
       </c>
       <c r="I11" t="n">
-        <v>-51.45282924431398</v>
+        <v>-51.452829244314</v>
       </c>
       <c r="J11" t="n">
-        <v>-129.75846235632184</v>
+        <v>-129.758462356322</v>
       </c>
       <c r="K11" t="n">
-        <v>736.9371999239002</v>
+        <v>736.9371999239</v>
       </c>
       <c r="L11" t="n">
-        <v>624.9248431391202</v>
+        <v>624.92484313912</v>
       </c>
       <c r="M11" t="n">
-        <v>1.263055465130233E8</v>
+        <v>126305546.513023</v>
       </c>
       <c r="N11" t="n">
-        <v>-37.128237000431035</v>
+        <v>-37.128237000431</v>
       </c>
       <c r="O11" t="n">
         <v>9.11040312865636</v>
       </c>
       <c r="P11" t="n">
-        <v>-12.425182877526753</v>
+        <v>-12.4251828775268</v>
       </c>
       <c r="Q11" t="n">
-        <v>-317.37100488941735</v>
+        <v>-317.371004889417</v>
       </c>
       <c r="R11" t="n">
-        <v>-15.120957931258383</v>
+        <v>-15.1209579312584</v>
       </c>
       <c r="S11" t="n">
-        <v>-14.335565895432119</v>
+        <v>-14.3355658954321</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.4099530754642713</v>
+        <v>-1.40995307546427</v>
       </c>
       <c r="U11" t="n">
-        <v>-74.37840108152835</v>
+        <v>-74.3784010815284</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.2656445800051355</v>
+        <v>-1.26564458000514</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.8641816555830919</v>
+        <v>-0.864181655583092</v>
       </c>
       <c r="X11" t="n">
-        <v>2.382235603398181</v>
+        <v>2.38223560339818</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.8741427952331776</v>
+        <v>-0.874142795233178</v>
       </c>
       <c r="Z11" t="n">
         <v>0.688560601499228</v>
@@ -1017,79 +1303,79 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1617.7947383115338</v>
+        <v>1617.79473831153</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.8987063428281754E13</v>
+        <v>-18987063428281.8</v>
       </c>
       <c r="D12" t="n">
-        <v>2756804.037421699</v>
+        <v>2756804.0374217</v>
       </c>
       <c r="E12" t="n">
-        <v>563.5073983353149</v>
+        <v>563.507398335315</v>
       </c>
       <c r="F12" t="n">
-        <v>956411.1787420168</v>
+        <v>956411.178742017</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.269442716066204E8</v>
+        <v>-126944271.60662</v>
       </c>
       <c r="H12" t="n">
-        <v>957.0321751010702</v>
+        <v>957.03217510107</v>
       </c>
       <c r="I12" t="n">
-        <v>1123.9185301980926</v>
+        <v>1123.91853019809</v>
       </c>
       <c r="J12" t="n">
-        <v>1298.9676038888888</v>
+        <v>1298.96760388889</v>
       </c>
       <c r="K12" t="n">
-        <v>624.9248431391202</v>
+        <v>624.92484313912</v>
       </c>
       <c r="L12" t="n">
-        <v>476995.7848615458</v>
+        <v>476995.784861546</v>
       </c>
       <c r="M12" t="n">
-        <v>6.047723029743832E8</v>
+        <v>604772302.974383</v>
       </c>
       <c r="N12" t="n">
-        <v>-352.1466761676724</v>
+        <v>-352.146676167672</v>
       </c>
       <c r="O12" t="n">
-        <v>-423.91736302259216</v>
+        <v>-423.917363022592</v>
       </c>
       <c r="P12" t="n">
-        <v>91.85377645659929</v>
+        <v>91.8537764565993</v>
       </c>
       <c r="Q12" t="n">
-        <v>2263.694177550535</v>
+        <v>2263.69417755054</v>
       </c>
       <c r="R12" t="n">
-        <v>65.99195503272081</v>
+        <v>65.9919550327208</v>
       </c>
       <c r="S12" t="n">
         <v>145.120119796376</v>
       </c>
       <c r="T12" t="n">
-        <v>5.901774972818992</v>
+        <v>5.90177497281899</v>
       </c>
       <c r="U12" t="n">
-        <v>811.4809935177566</v>
+        <v>811.480993517757</v>
       </c>
       <c r="V12" t="n">
-        <v>12.815549479898603</v>
+        <v>12.8155494798986</v>
       </c>
       <c r="W12" t="n">
-        <v>11.059253098190938</v>
+        <v>11.0592530981909</v>
       </c>
       <c r="X12" t="n">
-        <v>-36.73692945671748</v>
+        <v>-36.7369294567175</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.624308870313949</v>
+        <v>3.62430887031395</v>
       </c>
       <c r="Z12" t="n">
         <v>-8.98395489056008</v>
@@ -1097,870 +1383,870 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.37368238547406E8</v>
+        <v>337368238.547406</v>
       </c>
       <c r="C13" t="n">
-        <v>1.7833148036664892E20</v>
+        <v>178331480366648918026</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.7953197293513013E11</v>
+        <v>-179531972935.13</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.2507268700524338E7</v>
+        <v>-22507268.7005243</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2375562682032972E16</v>
+        <v>12375562682032972</v>
       </c>
       <c r="G13" t="n">
-        <v>1.484217690474217E14</v>
+        <v>148421769047422</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8685959708213598E7</v>
+        <v>18685959.7082136</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0485410547796759E8</v>
+        <v>104854105.477968</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1816237723974437E8</v>
+        <v>118162377.239744</v>
       </c>
       <c r="K13" t="n">
-        <v>1.263055465130233E8</v>
+        <v>126305546.513023</v>
       </c>
       <c r="L13" t="n">
-        <v>6.047723029743832E8</v>
+        <v>604772302.974383</v>
       </c>
       <c r="M13" t="n">
-        <v>2.6920380282970732E16</v>
+        <v>26920380282970732</v>
       </c>
       <c r="N13" t="n">
         <v>562176.912441998</v>
       </c>
       <c r="O13" t="n">
-        <v>-6.210819151738625E7</v>
+        <v>-62108191.5173863</v>
       </c>
       <c r="P13" t="n">
-        <v>-5889947.731511573</v>
+        <v>-5889947.73151157</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.2552961322570784E8</v>
+        <v>-125529613.225708</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.139686709939464E7</v>
+        <v>-11396867.0993946</v>
       </c>
       <c r="S13" t="n">
-        <v>-4398118.931127382</v>
+        <v>-4398118.93112738</v>
       </c>
       <c r="T13" t="n">
-        <v>-1925545.0926323407</v>
+        <v>-1925545.09263234</v>
       </c>
       <c r="U13" t="n">
         <v>8148980.07674383</v>
       </c>
       <c r="V13" t="n">
-        <v>1970059.1992548541</v>
+        <v>1970059.19925485</v>
       </c>
       <c r="W13" t="n">
         <v>-732921.94954644</v>
       </c>
       <c r="X13" t="n">
-        <v>1085730.1011137946</v>
+        <v>1085730.10111379</v>
       </c>
       <c r="Y13" t="n">
-        <v>-7431.692804895858</v>
+        <v>-7431.69280489586</v>
       </c>
       <c r="Z13" t="n">
-        <v>-688664.1758754851</v>
+        <v>-688664.175875485</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30.453517367672415</v>
+        <v>30.4535173676724</v>
       </c>
       <c r="C14" t="n">
-        <v>1.307496581109287E12</v>
+        <v>1307496581109.29</v>
       </c>
       <c r="D14" t="n">
-        <v>32878.75465059096</v>
+        <v>32878.754650591</v>
       </c>
       <c r="E14" t="n">
-        <v>7.2227797443965525</v>
+        <v>7.22277974439655</v>
       </c>
       <c r="F14" t="n">
-        <v>9238175.035802973</v>
+        <v>9238175.03580297</v>
       </c>
       <c r="G14" t="n">
-        <v>1159161.3282081077</v>
+        <v>1159161.32820811</v>
       </c>
       <c r="H14" t="n">
         <v>12.623619</v>
       </c>
       <c r="I14" t="n">
-        <v>15.478042212674243</v>
+        <v>15.4780422126742</v>
       </c>
       <c r="J14" t="n">
-        <v>20.240979915391524</v>
+        <v>20.2409799153915</v>
       </c>
       <c r="K14" t="n">
-        <v>-37.128237000431035</v>
+        <v>-37.128237000431</v>
       </c>
       <c r="L14" t="n">
-        <v>-352.1466761676724</v>
+        <v>-352.146676167672</v>
       </c>
       <c r="M14" t="n">
         <v>562176.912441998</v>
       </c>
       <c r="N14" t="n">
-        <v>17.60512903199569</v>
+        <v>17.6051290319957</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4026319004741381</v>
+        <v>0.402631900474138</v>
       </c>
       <c r="P14" t="n">
-        <v>2.308376379310345</v>
+        <v>2.30837637931034</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.94752788103448</v>
+        <v>41.9475278810345</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9655934319787824</v>
+        <v>1.96559343197878</v>
       </c>
       <c r="S14" t="n">
-        <v>2.364921908040975</v>
+        <v>2.36492190804098</v>
       </c>
       <c r="T14" t="n">
-        <v>0.24432482455429227</v>
+        <v>0.244324824554292</v>
       </c>
       <c r="U14" t="n">
-        <v>10.76592864469694</v>
+        <v>10.7659286446969</v>
       </c>
       <c r="V14" t="n">
-        <v>0.10209402261801008</v>
+        <v>0.10209402261801</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.09626098030518757</v>
+        <v>-0.0962609803051876</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.07325934952487283</v>
+        <v>-0.0732593495248728</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.046262526563674605</v>
+        <v>0.0462625265636746</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.13799586630438976</v>
+        <v>-0.13799586630439</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.64726380451843</v>
+        <v>14.6472638045184</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.552540859508928E11</v>
+        <v>-855254085950.893</v>
       </c>
       <c r="D15" t="n">
-        <v>-14416.976090624697</v>
+        <v>-14416.9760906247</v>
       </c>
       <c r="E15" t="n">
-        <v>-28.56042341545779</v>
+        <v>-28.5604234154578</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.423190337745122E7</v>
+        <v>-34231903.3774512</v>
       </c>
       <c r="G15" t="n">
-        <v>-499282.76511059835</v>
+        <v>-499282.765110598</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.9127624228299654</v>
+        <v>-0.912762422829965</v>
       </c>
       <c r="I15" t="n">
-        <v>19.415620952311077</v>
+        <v>19.4156209523111</v>
       </c>
       <c r="J15" t="n">
-        <v>7.972886671455942</v>
+        <v>7.97288667145594</v>
       </c>
       <c r="K15" t="n">
         <v>9.11040312865636</v>
       </c>
       <c r="L15" t="n">
-        <v>-423.91736302259216</v>
+        <v>-423.917363022592</v>
       </c>
       <c r="M15" t="n">
-        <v>-6.210819151738625E7</v>
+        <v>-62108191.5173863</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4026319004741381</v>
+        <v>0.402631900474138</v>
       </c>
       <c r="O15" t="n">
-        <v>29.19032715414982</v>
+        <v>29.1903271541498</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2649629488703924</v>
+        <v>0.264962948870392</v>
       </c>
       <c r="Q15" t="n">
-        <v>-5.048101087277051</v>
+        <v>-5.04810108727705</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.1803135866597074</v>
+        <v>-1.18031358665971</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3989272681728853</v>
+        <v>0.398927268172885</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.03683789461168671</v>
+        <v>-0.0368378946116867</v>
       </c>
       <c r="U15" t="n">
-        <v>-2.242020303298641</v>
+        <v>-2.24202030329864</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.21326510139850013</v>
+        <v>-0.2132651013985</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.2920076822619039</v>
+        <v>-0.292007682261904</v>
       </c>
       <c r="X15" t="n">
-        <v>0.08634582999160931</v>
+        <v>0.0863458299916093</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.16304807690343026</v>
+        <v>-0.16304807690343</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.051408729049835615</v>
+        <v>0.0514087290498356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.71990677764566</v>
+        <v>20.7199067776457</v>
       </c>
       <c r="C16" t="n">
-        <v>4.184632073201581E11</v>
+        <v>418463207320.158</v>
       </c>
       <c r="D16" t="n">
-        <v>14564.998654934601</v>
+        <v>14564.9986549346</v>
       </c>
       <c r="E16" t="n">
-        <v>0.47362853745541006</v>
+        <v>0.47362853745541</v>
       </c>
       <c r="F16" t="n">
-        <v>-135869.1177954816</v>
+        <v>-135869.117795482</v>
       </c>
       <c r="G16" t="n">
-        <v>158557.77484042806</v>
+        <v>158557.774840428</v>
       </c>
       <c r="H16" t="n">
-        <v>7.053124232404346</v>
+        <v>7.05312423240435</v>
       </c>
       <c r="I16" t="n">
-        <v>9.306055759354363</v>
+        <v>9.30605575935436</v>
       </c>
       <c r="J16" t="n">
-        <v>13.438054597701148</v>
+        <v>13.4380545977011</v>
       </c>
       <c r="K16" t="n">
-        <v>-12.425182877526753</v>
+        <v>-12.4251828775268</v>
       </c>
       <c r="L16" t="n">
-        <v>91.85377645659929</v>
+        <v>91.8537764565993</v>
       </c>
       <c r="M16" t="n">
-        <v>-5889947.731511573</v>
+        <v>-5889947.73151157</v>
       </c>
       <c r="N16" t="n">
-        <v>2.308376379310345</v>
+        <v>2.30837637931034</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2649629488703924</v>
+        <v>0.264962948870392</v>
       </c>
       <c r="P16" t="n">
-        <v>1.1042040623523854</v>
+        <v>1.10420406235239</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.162448748228625</v>
+        <v>15.1624487482286</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9616713063282547</v>
+        <v>0.961671306328255</v>
       </c>
       <c r="S16" t="n">
-        <v>1.1665128329628949</v>
+        <v>1.16651283296289</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09732587229210944</v>
+        <v>0.0973258722921094</v>
       </c>
       <c r="U16" t="n">
-        <v>5.579269048166899</v>
+        <v>5.5792690481669</v>
       </c>
       <c r="V16" t="n">
-        <v>0.053024557323102385</v>
+        <v>0.0530245573231024</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.010005273295320955</v>
+        <v>-0.010005273295321</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.043287613314516825</v>
+        <v>-0.0432876133145168</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.031925182761374675</v>
+        <v>0.0319251827613747</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.044046078105921004</v>
+        <v>-0.044046078105921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>225.69659042092746</v>
+        <v>225.696590420927</v>
       </c>
       <c r="C17" t="n">
-        <v>8.483791852782772E12</v>
+        <v>8483791852782.77</v>
       </c>
       <c r="D17" t="n">
-        <v>323839.1041073579</v>
+        <v>323839.104107358</v>
       </c>
       <c r="E17" t="n">
-        <v>34.55315401189061</v>
+        <v>34.5531540118906</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.1803412932211578E7</v>
+        <v>-31803412.9322116</v>
       </c>
       <c r="G17" t="n">
-        <v>856289.0487654364</v>
+        <v>856289.048765436</v>
       </c>
       <c r="H17" t="n">
-        <v>106.62870320264524</v>
+        <v>106.628703202645</v>
       </c>
       <c r="I17" t="n">
         <v>64.0731554218635</v>
       </c>
       <c r="J17" t="n">
-        <v>167.20764423371648</v>
+        <v>167.207644233716</v>
       </c>
       <c r="K17" t="n">
-        <v>-317.37100488941735</v>
+        <v>-317.371004889417</v>
       </c>
       <c r="L17" t="n">
-        <v>2263.694177550535</v>
+        <v>2263.69417755054</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.2552961322570784E8</v>
+        <v>-125529613.225708</v>
       </c>
       <c r="N17" t="n">
-        <v>41.94752788103448</v>
+        <v>41.9475278810345</v>
       </c>
       <c r="O17" t="n">
-        <v>-5.048101087277051</v>
+        <v>-5.04810108727705</v>
       </c>
       <c r="P17" t="n">
-        <v>15.162448748228625</v>
+        <v>15.1624487482286</v>
       </c>
       <c r="Q17" t="n">
-        <v>387.85771601322625</v>
+        <v>387.857716013226</v>
       </c>
       <c r="R17" t="n">
-        <v>15.861731383216267</v>
+        <v>15.8617313832163</v>
       </c>
       <c r="S17" t="n">
-        <v>17.496155301934085</v>
+        <v>17.4961553019341</v>
       </c>
       <c r="T17" t="n">
-        <v>1.3865734170685484</v>
+        <v>1.38657341706855</v>
       </c>
       <c r="U17" t="n">
-        <v>82.73988991252885</v>
+        <v>82.7398899125289</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2051926129038544</v>
+        <v>1.20519261290385</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3769065848176005</v>
+        <v>0.3769065848176</v>
       </c>
       <c r="X17" t="n">
-        <v>-2.041916871386917</v>
+        <v>-2.04191687138692</v>
       </c>
       <c r="Y17" t="n">
         <v>0.719079415638792</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.8220611743148598</v>
+        <v>-0.82206117431486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>20.540162137692107</v>
+        <v>20.5401621376921</v>
       </c>
       <c r="C18" t="n">
-        <v>4.2288185919698676E11</v>
+        <v>422881859196.987</v>
       </c>
       <c r="D18" t="n">
-        <v>16636.45310585587</v>
+        <v>16636.4531058559</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1211405568651676</v>
+        <v>1.12114055686517</v>
       </c>
       <c r="F18" t="n">
-        <v>-2691088.0650413632</v>
+        <v>-2691088.06504136</v>
       </c>
       <c r="G18" t="n">
         <v>297092.127097176</v>
       </c>
       <c r="H18" t="n">
-        <v>7.157431165498047</v>
+        <v>7.15743116549805</v>
       </c>
       <c r="I18" t="n">
         <v>7.63883445445262</v>
       </c>
       <c r="J18" t="n">
-        <v>12.864229824652313</v>
+        <v>12.8642298246523</v>
       </c>
       <c r="K18" t="n">
-        <v>-15.120957931258383</v>
+        <v>-15.1209579312584</v>
       </c>
       <c r="L18" t="n">
-        <v>65.99195503272081</v>
+        <v>65.9919550327208</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.139686709939464E7</v>
+        <v>-11396867.0993946</v>
       </c>
       <c r="N18" t="n">
-        <v>1.9655934319787824</v>
+        <v>1.96559343197878</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.1803135866597074</v>
+        <v>-1.18031358665971</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9616713063282547</v>
+        <v>0.961671306328255</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.861731383216267</v>
+        <v>15.8617313832163</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2567147180511993</v>
+        <v>1.2567147180512</v>
       </c>
       <c r="S18" t="n">
-        <v>1.0920984935326803</v>
+        <v>1.09209849353268</v>
       </c>
       <c r="T18" t="n">
-        <v>0.10970605592420371</v>
+        <v>0.109706055924204</v>
       </c>
       <c r="U18" t="n">
-        <v>5.823694838734114</v>
+        <v>5.82369483873411</v>
       </c>
       <c r="V18" t="n">
-        <v>0.08029736211055154</v>
+        <v>0.0802973621105515</v>
       </c>
       <c r="W18" t="n">
-        <v>0.021815330314619564</v>
+        <v>0.0218153303146196</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.08135029236393955</v>
+        <v>-0.0813502923639395</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.055983649096313724</v>
+        <v>0.0559836490963137</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.04979756165772519</v>
+        <v>-0.0497975616577252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>25.094249019057315</v>
+        <v>25.0942490190573</v>
       </c>
       <c r="C19" t="n">
-        <v>4.9696343208414703E11</v>
+        <v>496963432084.147</v>
       </c>
       <c r="D19" t="n">
-        <v>17859.497994749552</v>
+        <v>17859.4979947496</v>
       </c>
       <c r="E19" t="n">
-        <v>0.15400610406481982</v>
+        <v>0.15400610406482</v>
       </c>
       <c r="F19" t="n">
-        <v>404426.30970792077</v>
+        <v>404426.309707921</v>
       </c>
       <c r="G19" t="n">
-        <v>280841.4327290253</v>
+        <v>280841.432729025</v>
       </c>
       <c r="H19" t="n">
-        <v>8.378012081226318</v>
+        <v>8.37801208122632</v>
       </c>
       <c r="I19" t="n">
-        <v>10.581177567590442</v>
+        <v>10.5811775675904</v>
       </c>
       <c r="J19" t="n">
-        <v>15.919108481937055</v>
+        <v>15.9191084819371</v>
       </c>
       <c r="K19" t="n">
-        <v>-14.335565895432119</v>
+        <v>-14.3355658954321</v>
       </c>
       <c r="L19" t="n">
         <v>145.120119796376</v>
       </c>
       <c r="M19" t="n">
-        <v>-4398118.931127382</v>
+        <v>-4398118.93112738</v>
       </c>
       <c r="N19" t="n">
-        <v>2.364921908040975</v>
+        <v>2.36492190804098</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3989272681728853</v>
+        <v>0.398927268172885</v>
       </c>
       <c r="P19" t="n">
-        <v>1.1665128329628949</v>
+        <v>1.16651283296289</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.496155301934085</v>
+        <v>17.4961553019341</v>
       </c>
       <c r="R19" t="n">
-        <v>1.0920984935326803</v>
+        <v>1.09209849353268</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4498546866571806</v>
+        <v>1.44985468665718</v>
       </c>
       <c r="T19" t="n">
-        <v>0.11151609111731178</v>
+        <v>0.111516091117312</v>
       </c>
       <c r="U19" t="n">
-        <v>6.648898432476717</v>
+        <v>6.64889843247672</v>
       </c>
       <c r="V19" t="n">
-        <v>0.05681906889451549</v>
+        <v>0.0568190688945155</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.005447393132692701</v>
+        <v>-0.0054473931326927</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.06309181884106219</v>
+        <v>-0.0630918188410622</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.028465238588701716</v>
+        <v>0.0284652385887017</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.04777921359113789</v>
+        <v>-0.0477792135911379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2.2952343664819406</v>
+        <v>2.29523436648194</v>
       </c>
       <c r="C20" t="n">
-        <v>3.2534860340481686E10</v>
+        <v>32534860340.4817</v>
       </c>
       <c r="D20" t="n">
-        <v>1343.0923653935495</v>
+        <v>1343.09236539355</v>
       </c>
       <c r="E20" t="n">
         <v>0.0442371656201961</v>
       </c>
       <c r="F20" t="n">
-        <v>-540043.1013247434</v>
+        <v>-540043.101324743</v>
       </c>
       <c r="G20" t="n">
-        <v>31519.615720321435</v>
+        <v>31519.6157203214</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7081590855311518</v>
+        <v>0.708159085531152</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0984577998943208</v>
+        <v>1.09845779989432</v>
       </c>
       <c r="J20" t="n">
-        <v>1.4179547810750968</v>
+        <v>1.4179547810751</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.4099530754642713</v>
+        <v>-1.40995307546427</v>
       </c>
       <c r="L20" t="n">
-        <v>5.901774972818992</v>
+        <v>5.90177497281899</v>
       </c>
       <c r="M20" t="n">
-        <v>-1925545.0926323407</v>
+        <v>-1925545.09263234</v>
       </c>
       <c r="N20" t="n">
-        <v>0.24432482455429227</v>
+        <v>0.244324824554292</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.03683789461168671</v>
+        <v>-0.0368378946116867</v>
       </c>
       <c r="P20" t="n">
-        <v>0.09732587229210944</v>
+        <v>0.0973258722921094</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.3865734170685484</v>
+        <v>1.38657341706855</v>
       </c>
       <c r="R20" t="n">
-        <v>0.10970605592420371</v>
+        <v>0.109706055924204</v>
       </c>
       <c r="S20" t="n">
-        <v>0.11151609111731178</v>
+        <v>0.111516091117312</v>
       </c>
       <c r="T20" t="n">
-        <v>0.015972060474058275</v>
+        <v>0.0159720604740583</v>
       </c>
       <c r="U20" t="n">
-        <v>0.5926484097706394</v>
+        <v>0.592648409770639</v>
       </c>
       <c r="V20" t="n">
-        <v>0.007307012035890746</v>
+        <v>0.00730701203589075</v>
       </c>
       <c r="W20" t="n">
-        <v>5.412623634134068E-4</v>
+        <v>0.000541262363413407</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.004635539792246363</v>
+        <v>-0.00463553979224636</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.005366927321791029</v>
+        <v>0.00536692732179103</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.007095403622728047</v>
+        <v>-0.00709540362272805</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>146.39612635286235</v>
+        <v>146.396126352862</v>
       </c>
       <c r="C21" t="n">
-        <v>2.310315069504925E12</v>
+        <v>2310315069504.92</v>
       </c>
       <c r="D21" t="n">
-        <v>82344.50867077232</v>
+        <v>82344.5086707723</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.1668930592830642</v>
+        <v>-1.16689305928306</v>
       </c>
       <c r="F21" t="n">
-        <v>2.1424191135373186E7</v>
+        <v>21424191.1353732</v>
       </c>
       <c r="G21" t="n">
-        <v>776573.9313152985</v>
+        <v>776573.931315299</v>
       </c>
       <c r="H21" t="n">
-        <v>52.10710681639545</v>
+        <v>52.1071068163955</v>
       </c>
       <c r="I21" t="n">
-        <v>62.64045610142989</v>
+        <v>62.6404561014299</v>
       </c>
       <c r="J21" t="n">
-        <v>88.17153654507841</v>
+        <v>88.1715365450784</v>
       </c>
       <c r="K21" t="n">
-        <v>-74.37840108152835</v>
+        <v>-74.3784010815284</v>
       </c>
       <c r="L21" t="n">
-        <v>811.4809935177566</v>
+        <v>811.480993517757</v>
       </c>
       <c r="M21" t="n">
         <v>8148980.07674383</v>
       </c>
       <c r="N21" t="n">
-        <v>10.76592864469694</v>
+        <v>10.7659286446969</v>
       </c>
       <c r="O21" t="n">
-        <v>-2.242020303298641</v>
+        <v>-2.24202030329864</v>
       </c>
       <c r="P21" t="n">
-        <v>5.579269048166899</v>
+        <v>5.5792690481669</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.73988991252885</v>
+        <v>82.7398899125289</v>
       </c>
       <c r="R21" t="n">
-        <v>5.823694838734114</v>
+        <v>5.82369483873411</v>
       </c>
       <c r="S21" t="n">
-        <v>6.648898432476717</v>
+        <v>6.64889843247672</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5926484097706394</v>
+        <v>0.592648409770639</v>
       </c>
       <c r="U21" t="n">
-        <v>44.30677864960652</v>
+        <v>44.3067786496065</v>
       </c>
       <c r="V21" t="n">
-        <v>0.31021820933172023</v>
+        <v>0.31021820933172</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008379175869030602</v>
+        <v>0.0083791758690306</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.3178378458425486</v>
+        <v>-0.317837845842549</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.14523391337889766</v>
+        <v>0.145233913378898</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.24755756869850928</v>
+        <v>-0.247557568698509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9655082080199042</v>
+        <v>0.965508208019904</v>
       </c>
       <c r="C22" t="n">
-        <v>2.983021072167368E10</v>
+        <v>29830210721.6737</v>
       </c>
       <c r="D22" t="n">
-        <v>1056.608507770479</v>
+        <v>1056.60850777048</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3972054066762349</v>
+        <v>0.397205406676235</v>
       </c>
       <c r="F22" t="n">
-        <v>1081775.494673707</v>
+        <v>1081775.49467371</v>
       </c>
       <c r="G22" t="n">
-        <v>14792.296936290018</v>
+        <v>14792.29693629</v>
       </c>
       <c r="H22" t="n">
-        <v>0.38787153570049343</v>
+        <v>0.387871535700493</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5668951741228474</v>
+        <v>0.566895174122847</v>
       </c>
       <c r="J22" t="n">
         <v>0.674324476819163</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.2656445800051355</v>
+        <v>-1.26564458000514</v>
       </c>
       <c r="L22" t="n">
-        <v>12.815549479898603</v>
+        <v>12.8155494798986</v>
       </c>
       <c r="M22" t="n">
-        <v>1970059.1992548541</v>
+        <v>1970059.19925485</v>
       </c>
       <c r="N22" t="n">
-        <v>0.10209402261801008</v>
+        <v>0.10209402261801</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.21326510139850013</v>
+        <v>-0.2132651013985</v>
       </c>
       <c r="P22" t="n">
-        <v>0.053024557323102385</v>
+        <v>0.0530245573231024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.2051926129038544</v>
+        <v>1.20519261290385</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08029736211055154</v>
+        <v>0.0802973621105515</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05681906889451549</v>
+        <v>0.0568190688945155</v>
       </c>
       <c r="T22" t="n">
-        <v>0.007307012035890746</v>
+        <v>0.00730701203589075</v>
       </c>
       <c r="U22" t="n">
-        <v>0.31021820933172023</v>
+        <v>0.31021820933172</v>
       </c>
       <c r="V22" t="n">
-        <v>0.015172967185120796</v>
+        <v>0.0151729671851208</v>
       </c>
       <c r="W22" t="n">
-        <v>0.005563053608427282</v>
+        <v>0.00556305360842728</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.009989282168045375</v>
+        <v>-0.00998928216804537</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.007872341060149949</v>
+        <v>0.00787234106014995</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.004922759408492139</v>
+        <v>-0.00492275940849214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.35263578918886335</v>
+        <v>-0.352635789188863</v>
       </c>
       <c r="C23" t="n">
-        <v>8.995498687756182E9</v>
+        <v>8995498687.75618</v>
       </c>
       <c r="D23" t="n">
-        <v>686.7154798497585</v>
+        <v>686.715479849758</v>
       </c>
       <c r="E23" t="n">
-        <v>0.32524010171711354</v>
+        <v>0.325240101717114</v>
       </c>
       <c r="F23" t="n">
-        <v>-466275.09546449006</v>
+        <v>-466275.09546449</v>
       </c>
       <c r="G23" t="n">
-        <v>-6501.344722814629</v>
+        <v>-6501.34472281463</v>
       </c>
       <c r="H23" t="n">
-        <v>0.017353063885556044</v>
+        <v>0.017353063885556</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.4272718476758274</v>
+        <v>-0.427271847675827</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.23545336843137862</v>
+        <v>-0.235453368431379</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.8641816555830919</v>
+        <v>-0.864181655583092</v>
       </c>
       <c r="L23" t="n">
-        <v>11.059253098190938</v>
+        <v>11.0592530981909</v>
       </c>
       <c r="M23" t="n">
         <v>-732921.94954644</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.09626098030518757</v>
+        <v>-0.0962609803051876</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.2920076822619039</v>
+        <v>-0.292007682261904</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.010005273295320955</v>
+        <v>-0.010005273295321</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3769065848176005</v>
+        <v>0.3769065848176</v>
       </c>
       <c r="R23" t="n">
-        <v>0.021815330314619564</v>
+        <v>0.0218153303146196</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.005447393132692701</v>
+        <v>-0.0054473931326927</v>
       </c>
       <c r="T23" t="n">
-        <v>5.412623634134068E-4</v>
+        <v>0.000541262363413407</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008379175869030602</v>
+        <v>0.0083791758690306</v>
       </c>
       <c r="V23" t="n">
-        <v>0.005563053608427282</v>
+        <v>0.00556305360842728</v>
       </c>
       <c r="W23" t="n">
         <v>0.0231667078648883</v>
@@ -1969,202 +2255,202 @@
         <v>-0.00895067080093714</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.004096407828232468</v>
+        <v>0.00409640782823247</v>
       </c>
       <c r="Z23" t="n">
-        <v>-7.124140172285344E-4</v>
+        <v>-0.000712414017228534</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3542451817342993</v>
+        <v>-0.354245181734299</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.909892157839599E10</v>
+        <v>-29098921578.396</v>
       </c>
       <c r="D24" t="n">
-        <v>-2210.347898429756</v>
+        <v>-2210.34789842976</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1674751347768941</v>
+        <v>-0.167475134776894</v>
       </c>
       <c r="F24" t="n">
-        <v>416972.1015818332</v>
+        <v>416972.101581833</v>
       </c>
       <c r="G24" t="n">
-        <v>-6267.986243847494</v>
+        <v>-6267.98624384749</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.4024438668173567</v>
+        <v>-0.402443866817357</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06531803913426378</v>
+        <v>0.0653180391342638</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.3677270093404514</v>
+        <v>-0.367727009340451</v>
       </c>
       <c r="K24" t="n">
-        <v>2.382235603398181</v>
+        <v>2.38223560339818</v>
       </c>
       <c r="L24" t="n">
-        <v>-36.73692945671748</v>
+        <v>-36.7369294567175</v>
       </c>
       <c r="M24" t="n">
-        <v>1085730.1011137946</v>
+        <v>1085730.10111379</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.07325934952487283</v>
+        <v>-0.0732593495248728</v>
       </c>
       <c r="O24" t="n">
-        <v>0.08634582999160931</v>
+        <v>0.0863458299916093</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.043287613314516825</v>
+        <v>-0.0432876133145168</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2.041916871386917</v>
+        <v>-2.04191687138692</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.08135029236393955</v>
+        <v>-0.0813502923639395</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.06309181884106219</v>
+        <v>-0.0630918188410622</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.004635539792246363</v>
+        <v>-0.00463553979224636</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.3178378458425486</v>
+        <v>-0.317837845842549</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.009989282168045375</v>
+        <v>-0.00998928216804537</v>
       </c>
       <c r="W24" t="n">
         <v>-0.00895067080093714</v>
       </c>
       <c r="X24" t="n">
-        <v>0.03152349812534208</v>
+        <v>0.0315234981253421</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.005646279450041355</v>
+        <v>-0.00564627945004135</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.004938054593267957</v>
+        <v>0.00493805459326796</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2299311001524067</v>
+        <v>0.229931100152407</v>
       </c>
       <c r="C25" t="n">
-        <v>2.570231572679175E10</v>
+        <v>25702315726.7918</v>
       </c>
       <c r="D25" t="n">
-        <v>704.5518800540395</v>
+        <v>704.55188005404</v>
       </c>
       <c r="E25" t="n">
-        <v>0.37150323632317006</v>
+        <v>0.37150323632317</v>
       </c>
       <c r="F25" t="n">
-        <v>200752.97423718753</v>
+        <v>200752.974237188</v>
       </c>
       <c r="G25" t="n">
-        <v>16364.211823386055</v>
+        <v>16364.2118233861</v>
       </c>
       <c r="H25" t="n">
-        <v>0.16324383381296584</v>
+        <v>0.163243833812966</v>
       </c>
       <c r="I25" t="n">
-        <v>0.25541629359919493</v>
+        <v>0.255416293599195</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2477682574502022</v>
+        <v>0.247768257450202</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.8741427952331776</v>
+        <v>-0.874142795233178</v>
       </c>
       <c r="L25" t="n">
-        <v>3.624308870313949</v>
+        <v>3.62430887031395</v>
       </c>
       <c r="M25" t="n">
-        <v>-7431.692804895858</v>
+        <v>-7431.69280489586</v>
       </c>
       <c r="N25" t="n">
-        <v>0.046262526563674605</v>
+        <v>0.0462625265636746</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.16304807690343026</v>
+        <v>-0.16304807690343</v>
       </c>
       <c r="P25" t="n">
-        <v>0.031925182761374675</v>
+        <v>0.0319251827613747</v>
       </c>
       <c r="Q25" t="n">
         <v>0.719079415638792</v>
       </c>
       <c r="R25" t="n">
-        <v>0.055983649096313724</v>
+        <v>0.0559836490963137</v>
       </c>
       <c r="S25" t="n">
-        <v>0.028465238588701716</v>
+        <v>0.0284652385887017</v>
       </c>
       <c r="T25" t="n">
-        <v>0.005366927321791029</v>
+        <v>0.00536692732179103</v>
       </c>
       <c r="U25" t="n">
-        <v>0.14523391337889766</v>
+        <v>0.145233913378898</v>
       </c>
       <c r="V25" t="n">
-        <v>0.007872341060149949</v>
+        <v>0.00787234106014995</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004096407828232468</v>
+        <v>0.00409640782823247</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.005646279450041355</v>
+        <v>-0.00564627945004135</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.009856774774453118</v>
+        <v>0.00985677477445312</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.0032017425654495054</v>
+        <v>-0.00320174256544951</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9552774360381757</v>
+        <v>-0.955277436038176</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.1930373564920303E10</v>
+        <v>-21930373564.9203</v>
       </c>
       <c r="D26" t="n">
-        <v>-703.5725816223543</v>
+        <v>-703.572581622354</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.12086785199594183</v>
+        <v>-0.120867851995942</v>
       </c>
       <c r="F26" t="n">
         <v>-586840.038320645</v>
       </c>
       <c r="G26" t="n">
-        <v>-20635.796368781444</v>
+        <v>-20635.7963687814</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.3054242610212586</v>
+        <v>-0.305424261021259</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5217443114753224</v>
+        <v>-0.521744311475322</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.5218641839382611</v>
+        <v>-0.521864183938261</v>
       </c>
       <c r="K26" t="n">
         <v>0.688560601499228</v>
@@ -2173,49 +2459,50 @@
         <v>-8.98395489056008</v>
       </c>
       <c r="M26" t="n">
-        <v>-688664.1758754851</v>
+        <v>-688664.175875485</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.13799586630438976</v>
+        <v>-0.13799586630439</v>
       </c>
       <c r="O26" t="n">
-        <v>0.051408729049835615</v>
+        <v>0.0514087290498356</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.044046078105921004</v>
+        <v>-0.044046078105921</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.8220611743148598</v>
+        <v>-0.82206117431486</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.04979756165772519</v>
+        <v>-0.0497975616577252</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.04777921359113789</v>
+        <v>-0.0477792135911379</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.007095403622728047</v>
+        <v>-0.00709540362272805</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.24755756869850928</v>
+        <v>-0.247557568698509</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.004922759408492139</v>
+        <v>-0.00492275940849214</v>
       </c>
       <c r="W26" t="n">
-        <v>-7.124140172285344E-4</v>
+        <v>-0.000712414017228534</v>
       </c>
       <c r="X26" t="n">
-        <v>0.004938054593267957</v>
+        <v>0.00493805459326796</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.0032017425654495054</v>
+        <v>-0.00320174256544951</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.007560654869126331</v>
+        <v>0.00756065486912633</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>